--- a/sampledata/DIP.xlsx
+++ b/sampledata/DIP.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="580" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="227">
   <si>
     <t xml:space="preserve">entry</t>
   </si>
   <si>
-    <t xml:space="preserve">smiles</t>
+    <t xml:space="preserve">SMILES</t>
   </si>
   <si>
     <t xml:space="preserve">ee.</t>
@@ -736,9 +736,6 @@
     <t xml:space="preserve">c1ccccc1C#CC(=O)C(C)C</t>
   </si>
   <si>
-    <t xml:space="preserve">c1ccccc1C#CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C1CCCCC1C#CC(=O)C(C)C</t>
   </si>
   <si>
@@ -822,7 +819,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)c1ccccc1</t>
+    <t xml:space="preserve">C(=O)(C(F)(F)F)c1c2ccccc2ccc1</t>
   </si>
   <si>
     <t xml:space="preserve">Table3</t>
@@ -901,12 +898,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">rt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)c1c2ccccc2ccc1</t>
-  </si>
-  <si>
     <t xml:space="preserve">C(=O)(C(F)(F)F)c1cc2ccccc2cc1</t>
   </si>
   <si>
@@ -919,9 +910,6 @@
     <t xml:space="preserve">C(=O)(C(F)(F)C(F)(F)C(F)(F)F)c1ccccc1</t>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C(=O)(C(F)(F)F)CCCCCCC</t>
   </si>
   <si>
@@ -931,7 +919,7 @@
     <t xml:space="preserve">C(=O)(C(F)(F)F)C1CCCCC1</t>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(c1ccccc1)C(C)(C)C</t>
+    <t xml:space="preserve">C(=O)(C#Cc1ccccc1)C(C)(C)C</t>
   </si>
   <si>
     <t xml:space="preserve">neat</t>
@@ -1011,19 +999,13 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(C#Cc1ccccc1)C(C)(C)C</t>
-  </si>
-  <si>
     <t xml:space="preserve">C(=O)(C(F)(F)F)C#Cc1ccccc1</t>
   </si>
   <si>
-    <t xml:space="preserve">C(=O)(C#Cc1ccccc1)C</t>
+    <t xml:space="preserve">C(=O)(CF)C#Cc1ccccc1</t>
   </si>
   <si>
     <t xml:space="preserve">Table2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CF)C#Cc1ccccc1</t>
   </si>
   <si>
     <t xml:space="preserve">C(=O)(C(F)F)C#Cc1ccccc1</t>
@@ -1624,6 +1606,9 @@
       </rPr>
       <t xml:space="preserve">., 957-960.</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">rt</t>
   </si>
   <si>
     <t xml:space="preserve">C(=O)(c1c(NC)cccc1)C</t>
@@ -2168,10 +2153,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:K135"/>
+  <dimension ref="A1:K128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B128" activeCellId="0" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3785,10 +3770,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C48" s="8" t="n">
-        <v>-98</v>
+        <v>95</v>
       </c>
       <c r="D48" s="4" t="n">
         <v>-25</v>
@@ -3799,7 +3784,7 @@
       </c>
       <c r="F48" s="4" t="n">
         <f aca="false">50+C48/2</f>
-        <v>1</v>
+        <v>97.5</v>
       </c>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -3816,10 +3801,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C49" s="8" t="n">
-        <v>95</v>
+        <v>-81</v>
       </c>
       <c r="D49" s="4" t="n">
         <v>-25</v>
@@ -3830,7 +3815,7 @@
       </c>
       <c r="F49" s="4" t="n">
         <f aca="false">50+C49/2</f>
-        <v>97.5</v>
+        <v>9.5</v>
       </c>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -3847,10 +3832,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C50" s="8" t="n">
-        <v>-81</v>
+        <v>-36</v>
       </c>
       <c r="D50" s="4" t="n">
         <v>-25</v>
@@ -3861,7 +3846,7 @@
       </c>
       <c r="F50" s="4" t="n">
         <f aca="false">50+C50/2</f>
-        <v>9.5</v>
+        <v>32</v>
       </c>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -3877,11 +3862,11 @@
       <c r="A51" s="4" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51" s="8" t="n">
-        <v>-36</v>
+      <c r="B51" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="10" t="n">
+        <v>21</v>
       </c>
       <c r="D51" s="4" t="n">
         <v>-25</v>
@@ -3892,27 +3877,27 @@
       </c>
       <c r="F51" s="4" t="n">
         <f aca="false">50+C51/2</f>
-        <v>32</v>
-      </c>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
+        <v>60.5</v>
+      </c>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
       <c r="I51" s="6" t="s">
         <v>54</v>
       </c>
       <c r="J51" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="K51" s="4"/>
-    </row>
-    <row r="52" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="4" t="n">
         <v>51</v>
       </c>
-      <c r="B52" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="10" t="n">
-        <v>21</v>
+      <c r="B52" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C52" s="12" t="n">
+        <v>17</v>
       </c>
       <c r="D52" s="4" t="n">
         <v>-25</v>
@@ -3923,27 +3908,29 @@
       </c>
       <c r="F52" s="4" t="n">
         <f aca="false">50+C52/2</f>
-        <v>60.5</v>
-      </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="J52" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="K52" s="11"/>
+        <v>58.5</v>
+      </c>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K52" s="4"/>
     </row>
     <row r="53" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="4" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>86</v>
+      <c r="B53" s="9" t="s">
+        <v>90</v>
       </c>
       <c r="C53" s="12" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D53" s="4" t="n">
         <v>-25</v>
@@ -3954,12 +3941,10 @@
       </c>
       <c r="F53" s="4" t="n">
         <f aca="false">50+C53/2</f>
-        <v>58.5</v>
+        <v>64</v>
       </c>
       <c r="G53" s="4"/>
-      <c r="H53" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="H53" s="4"/>
       <c r="I53" s="13" t="s">
         <v>88</v>
       </c>
@@ -3973,10 +3958,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C54" s="12" t="n">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="D54" s="4" t="n">
         <v>-25</v>
@@ -3987,7 +3972,7 @@
       </c>
       <c r="F54" s="4" t="n">
         <f aca="false">50+C54/2</f>
-        <v>64</v>
+        <v>76.5</v>
       </c>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -4004,10 +3989,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C55" s="12" t="n">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="D55" s="4" t="n">
         <v>-25</v>
@@ -4018,7 +4003,7 @@
       </c>
       <c r="F55" s="4" t="n">
         <f aca="false">50+C55/2</f>
-        <v>76.5</v>
+        <v>69.5</v>
       </c>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -4035,10 +4020,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C56" s="12" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D56" s="4" t="n">
         <v>23</v>
@@ -4049,7 +4034,7 @@
       </c>
       <c r="F56" s="4" t="n">
         <f aca="false">50+C56/2</f>
-        <v>99</v>
+        <v>98.5</v>
       </c>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -4061,15 +4046,15 @@
       </c>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="C57" s="12" t="n">
-        <v>39</v>
+      <c r="B57" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" s="8" t="n">
+        <v>-98</v>
       </c>
       <c r="D57" s="4" t="n">
         <v>-25</v>
@@ -4080,15 +4065,17 @@
       </c>
       <c r="F57" s="4" t="n">
         <f aca="false">50+C57/2</f>
-        <v>69.5</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>95</v>
+      </c>
       <c r="H57" s="4"/>
-      <c r="I57" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J57" s="4" t="s">
-        <v>89</v>
+      <c r="I57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="J57" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="K57" s="4"/>
     </row>
@@ -4096,63 +4083,63 @@
       <c r="A58" s="4" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="C58" s="12" t="n">
-        <v>97</v>
+      <c r="B58" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C58" s="4" t="n">
+        <v>-78</v>
       </c>
       <c r="D58" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E58" s="4" t="n">
         <f aca="false">273+D58</f>
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F58" s="4" t="n">
         <f aca="false">50+C58/2</f>
-        <v>98.5</v>
+        <v>11</v>
       </c>
       <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="J58" s="4" t="s">
-        <v>89</v>
+      <c r="H58" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="I58" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J58" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C59" s="8" t="n">
-        <v>-98</v>
+      <c r="B59" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="4" t="n">
+        <v>-91</v>
       </c>
       <c r="D59" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E59" s="4" t="n">
         <f aca="false">273+D59</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F59" s="4" t="n">
         <f aca="false">50+C59/2</f>
-        <v>1</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>96</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="G59" s="4"/>
       <c r="H59" s="4"/>
       <c r="I59" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="J59" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
+      </c>
+      <c r="J59" s="14" t="s">
+        <v>101</v>
       </c>
       <c r="K59" s="4"/>
     </row>
@@ -4160,11 +4147,11 @@
       <c r="A60" s="4" t="n">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>99</v>
+      <c r="B60" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="C60" s="4" t="n">
-        <v>-90</v>
+        <v>-82</v>
       </c>
       <c r="D60" s="4" t="n">
         <v>25</v>
@@ -4175,23 +4162,17 @@
       </c>
       <c r="F60" s="4" t="n">
         <f aca="false">50+C60/2</f>
-        <v>5</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H60" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="J60" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="J60" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="K60" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="K60" s="4"/>
     </row>
     <row r="61" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="n">
@@ -4201,7 +4182,7 @@
         <v>104</v>
       </c>
       <c r="C61" s="4" t="n">
-        <v>-78</v>
+        <v>-92</v>
       </c>
       <c r="D61" s="4" t="n">
         <v>25</v>
@@ -4212,15 +4193,15 @@
       </c>
       <c r="F61" s="4" t="n">
         <f aca="false">50+C61/2</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
       <c r="I61" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J61" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="J61" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="K61" s="4"/>
     </row>
@@ -4232,7 +4213,7 @@
         <v>105</v>
       </c>
       <c r="C62" s="4" t="n">
-        <v>-91</v>
+        <v>-87</v>
       </c>
       <c r="D62" s="4" t="n">
         <v>25</v>
@@ -4243,15 +4224,15 @@
       </c>
       <c r="F62" s="4" t="n">
         <f aca="false">50+C62/2</f>
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J62" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="J62" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="K62" s="4"/>
     </row>
@@ -4259,11 +4240,11 @@
       <c r="A63" s="4" t="n">
         <v>62</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="B63" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C63" s="4" t="n">
-        <v>-82</v>
+        <v>-92</v>
       </c>
       <c r="D63" s="4" t="n">
         <v>25</v>
@@ -4274,15 +4255,15 @@
       </c>
       <c r="F63" s="4" t="n">
         <f aca="false">50+C63/2</f>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
       <c r="I63" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J63" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="J63" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="K63" s="4"/>
     </row>
@@ -4294,7 +4275,7 @@
         <v>107</v>
       </c>
       <c r="C64" s="4" t="n">
-        <v>-92</v>
+        <v>-91</v>
       </c>
       <c r="D64" s="4" t="n">
         <v>25</v>
@@ -4305,15 +4286,15 @@
       </c>
       <c r="F64" s="4" t="n">
         <f aca="false">50+C64/2</f>
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
       <c r="I64" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J64" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="J64" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="K64" s="4"/>
     </row>
@@ -4341,10 +4322,10 @@
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="J65" s="14" t="s">
         <v>101</v>
-      </c>
-      <c r="J65" s="14" t="s">
-        <v>102</v>
       </c>
       <c r="K65" s="4"/>
     </row>
@@ -4356,26 +4337,30 @@
         <v>109</v>
       </c>
       <c r="C66" s="4" t="n">
-        <v>-89</v>
+        <v>99</v>
       </c>
       <c r="D66" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E66" s="4" t="n">
         <f aca="false">273+D66</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F66" s="4" t="n">
         <f aca="false">50+C66/2</f>
-        <v>5.5</v>
-      </c>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
+        <v>99.5</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I66" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J66" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="J66" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K66" s="4"/>
     </row>
@@ -4384,29 +4369,31 @@
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>-92</v>
+        <v>-98</v>
       </c>
       <c r="D67" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E67" s="4" t="n">
         <f aca="false">273+D67</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F67" s="4" t="n">
         <f aca="false">50+C67/2</f>
-        <v>4</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J67" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="J67" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K67" s="4"/>
     </row>
@@ -4415,10 +4402,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>-91</v>
+        <v>28</v>
       </c>
       <c r="D68" s="4" t="n">
         <v>25</v>
@@ -4429,15 +4416,19 @@
       </c>
       <c r="F68" s="4" t="n">
         <f aca="false">50+C68/2</f>
-        <v>4.5</v>
-      </c>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
+        <v>64</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I68" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J68" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="J68" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K68" s="4"/>
     </row>
@@ -4446,10 +4437,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="C69" s="4" t="n">
-        <v>-87</v>
+        <v>-38</v>
       </c>
       <c r="D69" s="4" t="n">
         <v>25</v>
@@ -4460,15 +4451,17 @@
       </c>
       <c r="F69" s="4" t="n">
         <f aca="false">50+C69/2</f>
-        <v>6.5</v>
-      </c>
-      <c r="G69" s="4"/>
+        <v>31</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="H69" s="4"/>
       <c r="I69" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="J69" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
+      </c>
+      <c r="J69" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="K69" s="4"/>
     </row>
@@ -4477,10 +4470,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>79</v>
+        <v>-96</v>
       </c>
       <c r="D70" s="4" t="n">
         <v>25</v>
@@ -4491,19 +4484,17 @@
       </c>
       <c r="F70" s="4" t="n">
         <f aca="false">50+C70/2</f>
-        <v>89.5</v>
+        <v>2</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>115</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H70" s="4"/>
       <c r="I70" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J70" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K70" s="4"/>
     </row>
@@ -4512,31 +4503,31 @@
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C71" s="4" t="n">
-        <v>99</v>
+        <v>-94</v>
       </c>
       <c r="D71" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E71" s="4" t="n">
         <f aca="false">273+D71</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F71" s="4" t="n">
         <f aca="false">50+C71/2</f>
-        <v>99.5</v>
+        <v>3</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H71" s="4"/>
       <c r="I71" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K71" s="4"/>
     </row>
@@ -4545,31 +4536,31 @@
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>-98</v>
+        <v>46</v>
       </c>
       <c r="D72" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E72" s="4" t="n">
         <f aca="false">273+D72</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F72" s="4" t="n">
         <f aca="false">50+C72/2</f>
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K72" s="4"/>
     </row>
@@ -4578,10 +4569,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>21</v>
+        <v>-15</v>
       </c>
       <c r="D73" s="4" t="n">
         <v>25</v>
@@ -4592,19 +4583,17 @@
       </c>
       <c r="F73" s="4" t="n">
         <f aca="false">50+C73/2</f>
-        <v>60.5</v>
+        <v>42.5</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>121</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H73" s="4"/>
       <c r="I73" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J73" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K73" s="4"/>
     </row>
@@ -4616,7 +4605,7 @@
         <v>122</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>28</v>
+        <v>-99</v>
       </c>
       <c r="D74" s="4" t="n">
         <v>25</v>
@@ -4627,17 +4616,17 @@
       </c>
       <c r="F74" s="4" t="n">
         <f aca="false">50+C74/2</f>
-        <v>64</v>
+        <v>0.5</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J74" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K74" s="4"/>
     </row>
@@ -4649,7 +4638,7 @@
         <v>123</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>-38</v>
+        <v>-96</v>
       </c>
       <c r="D75" s="4" t="n">
         <v>25</v>
@@ -4660,17 +4649,17 @@
       </c>
       <c r="F75" s="4" t="n">
         <f aca="false">50+C75/2</f>
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J75" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K75" s="4"/>
     </row>
@@ -4679,10 +4668,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>-98</v>
+        <v>-92</v>
       </c>
       <c r="D76" s="4" t="n">
         <v>25</v>
@@ -4693,717 +4682,707 @@
       </c>
       <c r="F76" s="4" t="n">
         <f aca="false">50+C76/2</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="4" t="n">
         <v>76</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C77" s="4" t="n">
-        <v>-96</v>
+      <c r="B77" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C77" s="8" t="n">
+        <v>90</v>
       </c>
       <c r="D77" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E77" s="4" t="n">
         <f aca="false">273+D77</f>
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F77" s="4" t="n">
         <f aca="false">50+C77/2</f>
-        <v>2</v>
-      </c>
-      <c r="G77" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H77" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="I77" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J77" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K77" s="4"/>
-    </row>
-    <row r="78" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="J77" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="4" t="n">
         <v>77</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="4" t="n">
-        <v>-94</v>
+      <c r="B78" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="8" t="n">
+        <v>96</v>
       </c>
       <c r="D78" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E78" s="4" t="n">
         <f aca="false">273+D78</f>
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F78" s="4" t="n">
         <f aca="false">50+C78/2</f>
-        <v>3</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H78" s="4"/>
+        <v>98</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>131</v>
+      </c>
       <c r="I78" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J78" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K78" s="4"/>
-    </row>
-    <row r="79" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="J78" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="4" t="n">
         <v>78</v>
       </c>
-      <c r="B79" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C79" s="4" t="n">
-        <v>46</v>
+      <c r="B79" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C79" s="8" t="n">
+        <v>82</v>
       </c>
       <c r="D79" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E79" s="4" t="n">
         <f aca="false">273+D79</f>
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F79" s="4" t="n">
         <f aca="false">50+C79/2</f>
-        <v>73</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H79" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="I79" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J79" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K79" s="4"/>
-    </row>
-    <row r="80" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="J79" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="4" t="n">
         <v>79</v>
       </c>
-      <c r="B80" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C80" s="4" t="n">
-        <v>-15</v>
+      <c r="B80" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C80" s="8" t="n">
+        <v>82</v>
       </c>
       <c r="D80" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E80" s="4" t="n">
         <f aca="false">273+D80</f>
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F80" s="4" t="n">
         <f aca="false">50+C80/2</f>
-        <v>42.5</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H80" s="4"/>
+        <v>91</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="I80" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J80" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K80" s="4"/>
-    </row>
-    <row r="81" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="J80" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="4" t="n">
         <v>80</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C81" s="4" t="n">
-        <v>-99</v>
+      <c r="B81" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C81" s="8" t="n">
+        <v>79</v>
       </c>
       <c r="D81" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E81" s="4" t="n">
         <f aca="false">273+D81</f>
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F81" s="4" t="n">
         <f aca="false">50+C81/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G81" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H81" s="4"/>
+        <v>89.5</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="I81" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J81" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K81" s="4"/>
-    </row>
-    <row r="82" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="J81" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="4" t="n">
         <v>81</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C82" s="4" t="n">
-        <v>-96</v>
+      <c r="B82" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C82" s="8" t="n">
+        <v>78</v>
       </c>
       <c r="D82" s="4" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E82" s="4" t="n">
         <f aca="false">273+D82</f>
-        <v>298</v>
+        <v>273</v>
       </c>
       <c r="F82" s="4" t="n">
         <f aca="false">50+C82/2</f>
-        <v>2</v>
-      </c>
-      <c r="G82" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H82" s="4"/>
+        <v>89</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="I82" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J82" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K82" s="4"/>
-    </row>
-    <row r="83" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>127</v>
+      </c>
+      <c r="J82" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A83" s="4" t="n">
         <v>82</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C83" s="4" t="n">
-        <v>-92</v>
+      <c r="B83" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C83" s="8" t="n">
+        <v>90</v>
       </c>
       <c r="D83" s="4" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E83" s="4" t="n">
         <f aca="false">273+D83</f>
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F83" s="4" t="n">
         <f aca="false">50+C83/2</f>
-        <v>4</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="H83" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>142</v>
+      </c>
       <c r="I83" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="J83" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="K83" s="4"/>
+        <v>127</v>
+      </c>
+      <c r="J83" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="4" t="n">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C84" s="8" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="D84" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E84" s="4" t="n">
         <f aca="false">273+D84</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F84" s="4" t="n">
         <f aca="false">50+C84/2</f>
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H84" s="5" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J84" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K84" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="4" t="n">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C85" s="8" t="n">
-        <v>96</v>
+        <v>-93</v>
       </c>
       <c r="D85" s="4" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E85" s="4" t="n">
         <f aca="false">273+D85</f>
-        <v>293</v>
+        <v>273</v>
       </c>
       <c r="F85" s="4" t="n">
         <f aca="false">50+C85/2</f>
-        <v>98</v>
+        <v>3.5</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H85" s="5" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J85" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K85" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K85" s="4"/>
     </row>
     <row r="86" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="4" t="n">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C86" s="8" t="n">
-        <v>82</v>
+        <v>-95</v>
       </c>
       <c r="D86" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E86" s="4" t="n">
         <f aca="false">273+D86</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F86" s="4" t="n">
         <f aca="false">50+C86/2</f>
-        <v>91</v>
+        <v>2.5</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H86" s="5" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K86" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K86" s="4"/>
     </row>
     <row r="87" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="4" t="n">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="C87" s="8" t="n">
-        <v>82</v>
+        <v>-94</v>
       </c>
       <c r="D87" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E87" s="4" t="n">
         <f aca="false">273+D87</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F87" s="4" t="n">
         <f aca="false">50+C87/2</f>
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H87" s="5" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K87" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K87" s="4"/>
     </row>
     <row r="88" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A88" s="4" t="n">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="C88" s="8" t="n">
-        <v>79</v>
+        <v>-94</v>
       </c>
       <c r="D88" s="4" t="n">
-        <v>20</v>
+        <v>-25</v>
       </c>
       <c r="E88" s="4" t="n">
         <f aca="false">273+D88</f>
-        <v>293</v>
+        <v>248</v>
       </c>
       <c r="F88" s="4" t="n">
         <f aca="false">50+C88/2</f>
-        <v>89.5</v>
+        <v>3</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H88" s="5" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K88" s="5" t="s">
-        <v>135</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="K88" s="4"/>
     </row>
     <row r="89" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="4" t="n">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C89" s="8" t="n">
-        <v>78</v>
+        <v>-20</v>
       </c>
       <c r="D89" s="4" t="n">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="E89" s="4" t="n">
         <f aca="false">273+D89</f>
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F89" s="4" t="n">
         <f aca="false">50+C89/2</f>
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H89" s="5" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K89" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+      <c r="K89" s="4"/>
+    </row>
+    <row r="90" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="4" t="n">
         <v>89</v>
       </c>
-      <c r="B90" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="C90" s="8" t="n">
-        <v>90</v>
+      <c r="B90" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C90" s="4" t="n">
+        <v>96.4</v>
       </c>
       <c r="D90" s="4" t="n">
-        <v>20</v>
+        <v>-15</v>
       </c>
       <c r="E90" s="4" t="n">
         <f aca="false">273+D90</f>
-        <v>293</v>
+        <v>258</v>
       </c>
       <c r="F90" s="4" t="n">
         <f aca="false">50+C90/2</f>
-        <v>95</v>
-      </c>
-      <c r="G90" s="5" t="s">
+        <v>98.2</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="H90" s="4"/>
       <c r="I90" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J90" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="J90" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K90" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A91" s="4" t="n">
         <v>90</v>
       </c>
-      <c r="B91" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C91" s="8" t="n">
-        <v>20</v>
+      <c r="B91" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C91" s="4" t="n">
+        <v>88</v>
       </c>
       <c r="D91" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E91" s="4" t="n">
         <f aca="false">273+D91</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F91" s="4" t="n">
         <f aca="false">50+C91/2</f>
-        <v>60</v>
-      </c>
-      <c r="G91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="5" t="s">
-        <v>150</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
       <c r="I91" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J91" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="K91" s="0"/>
-    </row>
-    <row r="92" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>156</v>
+      </c>
+      <c r="J91" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K91" s="4"/>
+    </row>
+    <row r="92" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="4" t="n">
         <v>91</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="C92" s="8" t="n">
-        <v>-93</v>
+      <c r="B92" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C92" s="4" t="n">
+        <v>96.9</v>
       </c>
       <c r="D92" s="4" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E92" s="4" t="n">
         <f aca="false">273+D92</f>
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="F92" s="4" t="n">
         <f aca="false">50+C92/2</f>
-        <v>3.5</v>
-      </c>
-      <c r="G92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="5" t="s">
-        <v>152</v>
-      </c>
+        <v>98.45</v>
+      </c>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
       <c r="I92" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J92" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="J92" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="4" t="n">
         <v>92</v>
       </c>
-      <c r="B93" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="C93" s="8" t="n">
-        <v>-95</v>
+      <c r="B93" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D93" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E93" s="4" t="n">
         <f aca="false">273+D93</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F93" s="4" t="n">
         <f aca="false">50+C93/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="G93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="5" t="s">
-        <v>154</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
       <c r="I93" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J93" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="J93" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="4" t="n">
         <v>93</v>
       </c>
-      <c r="B94" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="C94" s="8" t="n">
-        <v>-94</v>
+      <c r="B94" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>28</v>
       </c>
       <c r="D94" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E94" s="4" t="n">
         <f aca="false">273+D94</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F94" s="4" t="n">
         <f aca="false">50+C94/2</f>
-        <v>3</v>
-      </c>
-      <c r="G94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="I94" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J94" s="7" t="s">
-        <v>134</v>
+      <c r="J94" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="4" t="n">
         <v>94</v>
       </c>
-      <c r="B95" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="C95" s="8" t="n">
-        <v>-94</v>
+      <c r="B95" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>15</v>
       </c>
       <c r="D95" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E95" s="4" t="n">
         <f aca="false">273+D95</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F95" s="4" t="n">
         <f aca="false">50+C95/2</f>
-        <v>3</v>
-      </c>
-      <c r="G95" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="5" t="s">
-        <v>158</v>
-      </c>
+        <v>57.5</v>
+      </c>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
       <c r="I95" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J95" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="J95" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="4" t="n">
         <v>95</v>
       </c>
-      <c r="B96" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="8" t="n">
-        <v>-20</v>
+      <c r="B96" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>0</v>
       </c>
       <c r="D96" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E96" s="4" t="n">
         <f aca="false">273+D96</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F96" s="4" t="n">
         <f aca="false">50+C96/2</f>
-        <v>40</v>
-      </c>
-      <c r="G96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="5" t="s">
-        <v>160</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
       <c r="I96" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="J96" s="7" t="s">
-        <v>134</v>
+        <v>156</v>
+      </c>
+      <c r="J96" s="4" t="s">
+        <v>157</v>
       </c>
       <c r="K96" s="4"/>
     </row>
@@ -5412,64 +5391,68 @@
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C97" s="4" t="n">
-        <v>96.4</v>
+        <v>96</v>
       </c>
       <c r="D97" s="4" t="n">
-        <v>-15</v>
+        <v>-25</v>
       </c>
       <c r="E97" s="4" t="n">
         <f aca="false">273+D97</f>
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="F97" s="4" t="n">
         <f aca="false">50+C97/2</f>
-        <v>98.2</v>
+        <v>98</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>111</v>
+      </c>
       <c r="I97" s="6" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="J97" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K97" s="5" t="s">
-        <v>164</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K97" s="4"/>
     </row>
     <row r="98" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="4" t="n">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C98" s="4" t="n">
-        <v>88</v>
+        <v>-97</v>
       </c>
       <c r="D98" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E98" s="4" t="n">
         <f aca="false">273+D98</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F98" s="4" t="n">
         <f aca="false">50+C98/2</f>
-        <v>94</v>
-      </c>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="H98" s="4" t="s">
+        <v>87</v>
+      </c>
       <c r="I98" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J98" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K98" s="4"/>
     </row>
@@ -5478,10 +5461,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="C99" s="4" t="n">
-        <v>96.9</v>
+        <v>80</v>
       </c>
       <c r="D99" s="4" t="n">
         <v>25</v>
@@ -5492,46 +5475,48 @@
       </c>
       <c r="F99" s="4" t="n">
         <f aca="false">50+C99/2</f>
-        <v>98.45</v>
+        <v>90</v>
       </c>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J99" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="K99" s="4"/>
+        <v>170</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="4" t="n">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="C100" s="4" t="n">
-        <v>0</v>
+        <v>-98</v>
       </c>
       <c r="D100" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E100" s="4" t="n">
         <f aca="false">273+D100</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F100" s="4" t="n">
         <f aca="false">50+C100/2</f>
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
       <c r="I100" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K100" s="4"/>
     </row>
@@ -5540,29 +5525,29 @@
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C101" s="4" t="n">
-        <v>28</v>
+        <v>-99</v>
       </c>
       <c r="D101" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E101" s="4" t="n">
         <f aca="false">273+D101</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F101" s="4" t="n">
         <f aca="false">50+C101/2</f>
-        <v>64</v>
+        <v>0.5</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
       <c r="I101" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K101" s="4"/>
     </row>
@@ -5571,10 +5556,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="C102" s="4" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D102" s="4" t="n">
         <v>25</v>
@@ -5585,58 +5570,64 @@
       </c>
       <c r="F102" s="4" t="n">
         <f aca="false">50+C102/2</f>
-        <v>57.5</v>
-      </c>
-      <c r="G102" s="4"/>
+        <v>65</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H102" s="4"/>
       <c r="I102" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A103" s="4" t="n">
         <v>102</v>
       </c>
-      <c r="B103" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C103" s="4" t="n">
-        <v>0</v>
+      <c r="B103" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C103" s="8" t="n">
+        <v>-97</v>
       </c>
       <c r="D103" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E103" s="4" t="n">
         <f aca="false">273+D103</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F103" s="4" t="n">
         <f aca="false">50+C103/2</f>
-        <v>50</v>
-      </c>
-      <c r="G103" s="4"/>
-      <c r="H103" s="4"/>
+        <v>1.5</v>
+      </c>
+      <c r="G103" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="I103" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J103" s="4" t="s">
-        <v>163</v>
+        <v>179</v>
+      </c>
+      <c r="J103" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="4" t="n">
         <v>103</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C104" s="4" t="n">
-        <v>96</v>
+      <c r="B104" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C104" s="8" t="n">
+        <v>-95</v>
       </c>
       <c r="D104" s="4" t="n">
         <v>-25</v>
@@ -5647,31 +5638,31 @@
       </c>
       <c r="F104" s="4" t="n">
         <f aca="false">50+C104/2</f>
-        <v>98</v>
-      </c>
-      <c r="G104" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H104" s="4" t="s">
-        <v>115</v>
+        <v>2.5</v>
+      </c>
+      <c r="G104" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H104" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="I104" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J104" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
+      </c>
+      <c r="J104" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="4" t="n">
         <v>104</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C105" s="4" t="n">
-        <v>-97</v>
+      <c r="B105" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C105" s="8" t="n">
+        <v>-87</v>
       </c>
       <c r="D105" s="4" t="n">
         <v>-25</v>
@@ -5682,126 +5673,134 @@
       </c>
       <c r="F105" s="4" t="n">
         <f aca="false">50+C105/2</f>
-        <v>1.5</v>
+        <v>6.5</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="H105" s="4" t="s">
-        <v>87</v>
+        <v>177</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="I105" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J105" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
+      </c>
+      <c r="J105" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A106" s="4" t="n">
         <v>105</v>
       </c>
-      <c r="B106" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C106" s="4" t="n">
-        <v>80</v>
+      <c r="B106" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C106" s="8" t="n">
+        <v>-94</v>
       </c>
       <c r="D106" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E106" s="4" t="n">
         <f aca="false">273+D106</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F106" s="4" t="n">
         <f aca="false">50+C106/2</f>
-        <v>90</v>
-      </c>
-      <c r="G106" s="4"/>
-      <c r="H106" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="G106" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="I106" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="J106" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K106" s="4" t="s">
-        <v>178</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J106" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K106" s="4"/>
     </row>
     <row r="107" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A107" s="4" t="n">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="C107" s="4" t="n">
-        <v>-98</v>
+        <v>97</v>
       </c>
       <c r="D107" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E107" s="4" t="n">
         <f aca="false">273+D107</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F107" s="4" t="n">
         <f aca="false">50+C107/2</f>
-        <v>1</v>
-      </c>
-      <c r="G107" s="4"/>
+        <v>98.5</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="H107" s="4"/>
       <c r="I107" s="6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K107" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="K107" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="4" t="n">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C108" s="4" t="n">
-        <v>-99</v>
+        <v>69</v>
       </c>
       <c r="D108" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E108" s="4" t="n">
         <f aca="false">273+D108</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F108" s="4" t="n">
         <f aca="false">50+C108/2</f>
-        <v>0.5</v>
+        <v>84.5</v>
       </c>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
       <c r="I108" s="6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J108" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K108" s="4"/>
+        <v>186</v>
+      </c>
+      <c r="K108" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="109" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A109" s="4" t="n">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="C109" s="4" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D109" s="4" t="n">
         <v>25</v>
@@ -5812,122 +5811,118 @@
       </c>
       <c r="F109" s="4" t="n">
         <f aca="false">50+C109/2</f>
-        <v>65</v>
-      </c>
-      <c r="G109" s="4" t="s">
-        <v>12</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G109" s="4"/>
       <c r="H109" s="4"/>
       <c r="I109" s="6" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="K109" s="4"/>
-    </row>
-    <row r="110" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>186</v>
+      </c>
+      <c r="K109" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A110" s="4" t="n">
         <v>109</v>
       </c>
-      <c r="B110" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C110" s="8" t="n">
-        <v>-97</v>
+      <c r="B110" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C110" s="4" t="n">
+        <v>96</v>
       </c>
       <c r="D110" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E110" s="4" t="n">
         <f aca="false">273+D110</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F110" s="4" t="n">
         <f aca="false">50+C110/2</f>
-        <v>1.5</v>
-      </c>
-      <c r="G110" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H110" s="5" t="s">
-        <v>184</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
       <c r="I110" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J110" s="7" t="s">
+      <c r="J110" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K110" s="4"/>
-    </row>
-    <row r="111" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K110" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A111" s="4" t="n">
         <v>110</v>
       </c>
-      <c r="B111" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C111" s="8" t="n">
-        <v>-95</v>
+      <c r="B111" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C111" s="4" t="n">
+        <v>66</v>
       </c>
       <c r="D111" s="4" t="n">
-        <v>-25</v>
+        <v>25</v>
       </c>
       <c r="E111" s="4" t="n">
         <f aca="false">273+D111</f>
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="F111" s="4" t="n">
         <f aca="false">50+C111/2</f>
-        <v>2.5</v>
-      </c>
-      <c r="G111" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="H111" s="5" t="s">
-        <v>184</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
       <c r="I111" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="K111" s="4"/>
+      <c r="K111" s="4" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="112" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A112" s="4" t="n">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C112" s="8" t="n">
-        <v>-87</v>
+        <v>92</v>
       </c>
       <c r="D112" s="4" t="n">
-        <v>-25</v>
+        <v>-78</v>
       </c>
       <c r="E112" s="4" t="n">
         <f aca="false">273+D112</f>
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="F112" s="4" t="n">
         <f aca="false">50+C112/2</f>
-        <v>6.5</v>
+        <v>96</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="H112" s="5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="I112" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J112" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K112" s="4"/>
     </row>
@@ -5936,270 +5931,276 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C113" s="8" t="n">
-        <v>-94</v>
+        <v>89</v>
       </c>
       <c r="D113" s="4" t="n">
-        <v>-25</v>
+        <v>-78</v>
       </c>
       <c r="E113" s="4" t="n">
         <f aca="false">273+D113</f>
-        <v>248</v>
+        <v>195</v>
       </c>
       <c r="F113" s="4" t="n">
         <f aca="false">50+C113/2</f>
-        <v>3</v>
+        <v>94.5</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="H113" s="5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="I113" s="6" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="J113" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="4" t="n">
         <v>113</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C114" s="4" t="n">
-        <v>97</v>
+      <c r="B114" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C114" s="8" t="n">
+        <v>-82</v>
       </c>
       <c r="D114" s="4" t="n">
-        <v>25</v>
+        <v>-78</v>
       </c>
       <c r="E114" s="4" t="n">
         <f aca="false">273+D114</f>
-        <v>298</v>
+        <v>195</v>
       </c>
       <c r="F114" s="4" t="n">
         <f aca="false">50+C114/2</f>
-        <v>98.5</v>
-      </c>
-      <c r="G114" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="4"/>
+      <c r="H114" s="5" t="s">
+        <v>200</v>
+      </c>
       <c r="I114" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J114" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K114" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+      <c r="J114" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K114" s="4"/>
+    </row>
+    <row r="115" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="4" t="n">
         <v>114</v>
       </c>
-      <c r="B115" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C115" s="4" t="n">
-        <v>69</v>
+      <c r="B115" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="8" t="n">
+        <v>-99</v>
       </c>
       <c r="D115" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E115" s="4" t="n">
         <f aca="false">273+D115</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F115" s="4" t="n">
         <f aca="false">50+C115/2</f>
-        <v>84.5</v>
-      </c>
-      <c r="G115" s="4"/>
-      <c r="H115" s="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>202</v>
+      </c>
       <c r="I115" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K115" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+      <c r="J115" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A116" s="4" t="n">
         <v>115</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C116" s="4" t="n">
-        <v>64</v>
+      <c r="B116" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C116" s="8" t="n">
+        <v>27</v>
       </c>
       <c r="D116" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E116" s="4" t="n">
         <f aca="false">273+D116</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F116" s="4" t="n">
         <f aca="false">50+C116/2</f>
-        <v>82</v>
-      </c>
-      <c r="G116" s="4"/>
-      <c r="H116" s="4"/>
+        <v>63.5</v>
+      </c>
+      <c r="G116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>204</v>
+      </c>
       <c r="I116" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K116" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>195</v>
+      </c>
+      <c r="J116" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K116" s="4"/>
+    </row>
+    <row r="117" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="4" t="n">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C117" s="4" t="n">
-        <v>96</v>
+      <c r="B117" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C117" s="8" t="n">
+        <v>-98</v>
       </c>
       <c r="D117" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E117" s="4" t="n">
         <f aca="false">273+D117</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F117" s="4" t="n">
         <f aca="false">50+C117/2</f>
-        <v>98</v>
-      </c>
-      <c r="G117" s="4"/>
-      <c r="H117" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="G117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="I117" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J117" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K117" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J117" s="7" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="K117" s="4"/>
+    </row>
+    <row r="118" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="4" t="n">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C118" s="4" t="n">
-        <v>66</v>
+      <c r="B118" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C118" s="8" t="n">
+        <v>82</v>
       </c>
       <c r="D118" s="4" t="n">
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="E118" s="4" t="n">
         <f aca="false">273+D118</f>
-        <v>298</v>
+        <v>248</v>
       </c>
       <c r="F118" s="4" t="n">
         <f aca="false">50+C118/2</f>
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="G118" s="4"/>
-      <c r="H118" s="4"/>
+      <c r="H118" s="5" t="s">
+        <v>137</v>
+      </c>
       <c r="I118" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="J118" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="K118" s="4" t="s">
-        <v>103</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="J118" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K118" s="4"/>
     </row>
     <row r="119" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="4" t="n">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="C119" s="8" t="n">
-        <v>92</v>
+        <v>-91</v>
       </c>
       <c r="D119" s="4" t="n">
-        <v>-78</v>
+        <v>-25</v>
       </c>
       <c r="E119" s="4" t="n">
         <f aca="false">273+D119</f>
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="F119" s="4" t="n">
         <f aca="false">50+C119/2</f>
-        <v>96</v>
-      </c>
-      <c r="G119" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="G119" s="4"/>
       <c r="H119" s="5" t="s">
-        <v>199</v>
+        <v>142</v>
       </c>
       <c r="I119" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J119" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="K119" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="120" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="4" t="n">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C120" s="8" t="n">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="D120" s="4" t="n">
-        <v>-78</v>
+        <v>-25</v>
       </c>
       <c r="E120" s="4" t="n">
         <f aca="false">273+D120</f>
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="F120" s="4" t="n">
         <f aca="false">50+C120/2</f>
-        <v>94.5</v>
-      </c>
-      <c r="G120" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G120" s="4"/>
       <c r="H120" s="5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="I120" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J120" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K120" s="4"/>
     </row>
@@ -6208,33 +6209,31 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C121" s="8" t="n">
-        <v>-82</v>
+        <v>15</v>
       </c>
       <c r="D121" s="4" t="n">
-        <v>-78</v>
+        <v>-25</v>
       </c>
       <c r="E121" s="4" t="n">
         <f aca="false">273+D121</f>
-        <v>195</v>
+        <v>248</v>
       </c>
       <c r="F121" s="4" t="n">
         <f aca="false">50+C121/2</f>
-        <v>9</v>
-      </c>
-      <c r="G121" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>57.5</v>
+      </c>
+      <c r="G121" s="4"/>
       <c r="H121" s="5" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J121" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K121" s="4"/>
     </row>
@@ -6243,36 +6242,34 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C122" s="8" t="n">
-        <v>-99</v>
+        <v>-91</v>
       </c>
       <c r="D122" s="4" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E122" s="4" t="n">
         <f aca="false">273+D122</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F122" s="4" t="n">
         <f aca="false">50+C122/2</f>
-        <v>0.5</v>
-      </c>
-      <c r="G122" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>4.5</v>
+      </c>
+      <c r="G122" s="4"/>
       <c r="H122" s="5" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J122" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K122" s="5" t="s">
-        <v>77</v>
+        <v>211</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6280,10 +6277,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C123" s="8" t="n">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="D123" s="4" t="n">
         <v>-25</v>
@@ -6294,19 +6291,17 @@
       </c>
       <c r="F123" s="4" t="n">
         <f aca="false">50+C123/2</f>
-        <v>63.5</v>
-      </c>
-      <c r="G123" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>97.5</v>
+      </c>
+      <c r="G123" s="4"/>
       <c r="H123" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I123" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="J123" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="I123" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="J123" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="K123" s="4"/>
     </row>
@@ -6315,10 +6310,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="C124" s="8" t="n">
-        <v>-98</v>
+        <v>85</v>
       </c>
       <c r="D124" s="4" t="n">
         <v>-25</v>
@@ -6329,19 +6324,17 @@
       </c>
       <c r="F124" s="4" t="n">
         <f aca="false">50+C124/2</f>
-        <v>1</v>
-      </c>
-      <c r="G124" s="5" t="s">
-        <v>12</v>
-      </c>
+        <v>92.5</v>
+      </c>
+      <c r="G124" s="4"/>
       <c r="H124" s="5" t="s">
-        <v>211</v>
+        <v>150</v>
       </c>
       <c r="I124" s="6" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="J124" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="K124" s="4"/>
     </row>
@@ -6350,43 +6343,45 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="C125" s="8" t="n">
-        <v>82</v>
+        <v>-90</v>
       </c>
       <c r="D125" s="4" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E125" s="4" t="n">
         <f aca="false">273+D125</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F125" s="4" t="n">
         <f aca="false">50+C125/2</f>
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="G125" s="4"/>
       <c r="H125" s="5" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I125" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J125" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K125" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="126" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A126" s="4" t="n">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="C126" s="8" t="n">
-        <v>-91</v>
+        <v>-61</v>
       </c>
       <c r="D126" s="4" t="n">
         <v>-25</v>
@@ -6397,31 +6392,29 @@
       </c>
       <c r="F126" s="4" t="n">
         <f aca="false">50+C126/2</f>
-        <v>4.5</v>
+        <v>19.5</v>
       </c>
       <c r="G126" s="4"/>
       <c r="H126" s="5" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
       <c r="I126" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J126" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K126" s="5" t="s">
-        <v>216</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="K126" s="4"/>
     </row>
     <row r="127" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="4" t="n">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="C127" s="8" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="D127" s="4" t="n">
         <v>-25</v>
@@ -6432,17 +6425,17 @@
       </c>
       <c r="F127" s="4" t="n">
         <f aca="false">50+C127/2</f>
-        <v>59</v>
+        <v>52.5</v>
       </c>
       <c r="G127" s="4"/>
       <c r="H127" s="5" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="I127" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J127" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K127" s="4"/>
     </row>
@@ -6451,268 +6444,33 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="C128" s="8" t="n">
-        <v>15</v>
+        <v>-96</v>
       </c>
       <c r="D128" s="4" t="n">
-        <v>-25</v>
+        <v>20</v>
       </c>
       <c r="E128" s="4" t="n">
         <f aca="false">273+D128</f>
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="F128" s="4" t="n">
         <f aca="false">50+C128/2</f>
-        <v>57.5</v>
+        <v>2</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="5" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="I128" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="J128" s="7" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K128" s="4"/>
-    </row>
-    <row r="129" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A129" s="4" t="n">
-        <v>128</v>
-      </c>
-      <c r="B129" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="C129" s="8" t="n">
-        <v>-91</v>
-      </c>
-      <c r="D129" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E129" s="4" t="n">
-        <f aca="false">273+D129</f>
-        <v>293</v>
-      </c>
-      <c r="F129" s="4" t="n">
-        <f aca="false">50+C129/2</f>
-        <v>4.5</v>
-      </c>
-      <c r="G129" s="4"/>
-      <c r="H129" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="I129" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J129" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K129" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A130" s="4" t="n">
-        <v>129</v>
-      </c>
-      <c r="B130" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C130" s="8" t="n">
-        <v>95</v>
-      </c>
-      <c r="D130" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E130" s="4" t="n">
-        <f aca="false">273+D130</f>
-        <v>248</v>
-      </c>
-      <c r="F130" s="4" t="n">
-        <f aca="false">50+C130/2</f>
-        <v>97.5</v>
-      </c>
-      <c r="G130" s="4"/>
-      <c r="H130" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="I130" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J130" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K130" s="4"/>
-    </row>
-    <row r="131" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A131" s="4" t="n">
-        <v>130</v>
-      </c>
-      <c r="B131" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C131" s="8" t="n">
-        <v>85</v>
-      </c>
-      <c r="D131" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E131" s="4" t="n">
-        <f aca="false">273+D131</f>
-        <v>248</v>
-      </c>
-      <c r="F131" s="4" t="n">
-        <f aca="false">50+C131/2</f>
-        <v>92.5</v>
-      </c>
-      <c r="G131" s="4"/>
-      <c r="H131" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="I131" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J131" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K131" s="4"/>
-    </row>
-    <row r="132" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A132" s="4" t="n">
-        <v>131</v>
-      </c>
-      <c r="B132" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C132" s="8" t="n">
-        <v>-90</v>
-      </c>
-      <c r="D132" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E132" s="4" t="n">
-        <f aca="false">273+D132</f>
-        <v>293</v>
-      </c>
-      <c r="F132" s="4" t="n">
-        <f aca="false">50+C132/2</f>
-        <v>5</v>
-      </c>
-      <c r="G132" s="4"/>
-      <c r="H132" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="I132" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J132" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K132" s="5" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A133" s="4" t="n">
-        <v>132</v>
-      </c>
-      <c r="B133" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C133" s="8" t="n">
-        <v>-61</v>
-      </c>
-      <c r="D133" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E133" s="4" t="n">
-        <f aca="false">273+D133</f>
-        <v>248</v>
-      </c>
-      <c r="F133" s="4" t="n">
-        <f aca="false">50+C133/2</f>
-        <v>19.5</v>
-      </c>
-      <c r="G133" s="4"/>
-      <c r="H133" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="I133" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J133" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K133" s="4"/>
-    </row>
-    <row r="134" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="4" t="n">
-        <v>133</v>
-      </c>
-      <c r="B134" s="5" t="s">
-        <v>228</v>
-      </c>
-      <c r="C134" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="D134" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E134" s="4" t="n">
-        <f aca="false">273+D134</f>
-        <v>248</v>
-      </c>
-      <c r="F134" s="4" t="n">
-        <f aca="false">50+C134/2</f>
-        <v>52.5</v>
-      </c>
-      <c r="G134" s="4"/>
-      <c r="H134" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="I134" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J134" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K134" s="4"/>
-    </row>
-    <row r="135" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="4" t="n">
-        <v>134</v>
-      </c>
-      <c r="B135" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C135" s="8" t="n">
-        <v>-96</v>
-      </c>
-      <c r="D135" s="4" t="n">
-        <v>20</v>
-      </c>
-      <c r="E135" s="4" t="n">
-        <f aca="false">273+D135</f>
-        <v>293</v>
-      </c>
-      <c r="F135" s="4" t="n">
-        <f aca="false">50+C135/2</f>
-        <v>2</v>
-      </c>
-      <c r="G135" s="4"/>
-      <c r="H135" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="I135" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="J135" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K135" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6766,24 +6524,24 @@
     <hyperlink ref="I49" r:id="rId48" display="https://doi.org/10.1021/ar00013a003 "/>
     <hyperlink ref="I50" r:id="rId49" display="https://doi.org/10.1021/ar00013a003 "/>
     <hyperlink ref="I51" r:id="rId50" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I52" r:id="rId51" display="https://doi.org/10.1021/ar00013a003 "/>
+    <hyperlink ref="I52" r:id="rId51" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I53" r:id="rId52" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I54" r:id="rId53" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I55" r:id="rId54" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
     <hyperlink ref="I56" r:id="rId55" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I57" r:id="rId56" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I58" r:id="rId57" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I59" r:id="rId58" display="https://doi.org/10.1016/S0957-4166(00)82208-9 "/>
+    <hyperlink ref="I57" r:id="rId56" display="https://doi.org/10.1016/S0957-4166(00)82208-9 "/>
+    <hyperlink ref="I58" r:id="rId57" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
+    <hyperlink ref="I59" r:id="rId58" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
     <hyperlink ref="I60" r:id="rId59" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
     <hyperlink ref="I61" r:id="rId60" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
     <hyperlink ref="I62" r:id="rId61" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
     <hyperlink ref="I63" r:id="rId62" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
     <hyperlink ref="I64" r:id="rId63" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
     <hyperlink ref="I65" r:id="rId64" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I66" r:id="rId65" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I67" r:id="rId66" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I68" r:id="rId67" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I69" r:id="rId68" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
+    <hyperlink ref="I66" r:id="rId65" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
+    <hyperlink ref="I67" r:id="rId66" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
+    <hyperlink ref="I68" r:id="rId67" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
+    <hyperlink ref="I69" r:id="rId68" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
     <hyperlink ref="I70" r:id="rId69" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
     <hyperlink ref="I71" r:id="rId70" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
     <hyperlink ref="I72" r:id="rId71" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
@@ -6791,65 +6549,58 @@
     <hyperlink ref="I74" r:id="rId73" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
     <hyperlink ref="I75" r:id="rId74" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
     <hyperlink ref="I76" r:id="rId75" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I77" r:id="rId76" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I78" r:id="rId77" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I79" r:id="rId78" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I80" r:id="rId79" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I81" r:id="rId80" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I82" r:id="rId81" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I83" r:id="rId82" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
+    <hyperlink ref="I77" r:id="rId76" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
+    <hyperlink ref="I78" r:id="rId77" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
+    <hyperlink ref="I79" r:id="rId78" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
+    <hyperlink ref="I80" r:id="rId79" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
+    <hyperlink ref="I81" r:id="rId80" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
+    <hyperlink ref="I82" r:id="rId81" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
+    <hyperlink ref="I83" r:id="rId82" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
     <hyperlink ref="I84" r:id="rId83" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
     <hyperlink ref="I85" r:id="rId84" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
     <hyperlink ref="I86" r:id="rId85" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
     <hyperlink ref="I87" r:id="rId86" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
     <hyperlink ref="I88" r:id="rId87" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
     <hyperlink ref="I89" r:id="rId88" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I90" r:id="rId89" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I91" r:id="rId90" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I92" r:id="rId91" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I93" r:id="rId92" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I94" r:id="rId93" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I95" r:id="rId94" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I96" r:id="rId95" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I97" r:id="rId96" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I98" r:id="rId97" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I99" r:id="rId98" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I100" r:id="rId99" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I101" r:id="rId100" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I102" r:id="rId101" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I103" r:id="rId102" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I104" r:id="rId103" display="https://doi.org/10.1021/jo00106a012 "/>
-    <hyperlink ref="I105" r:id="rId104" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I106" r:id="rId105" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I107" r:id="rId106" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I108" r:id="rId107" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I109" r:id="rId108" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I110" r:id="rId109" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I111" r:id="rId110" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I112" r:id="rId111" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I113" r:id="rId112" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I114" r:id="rId113" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I115" r:id="rId114" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I116" r:id="rId115" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I117" r:id="rId116" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I118" r:id="rId117" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I119" r:id="rId118" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I120" r:id="rId119" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I121" r:id="rId120" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I122" r:id="rId121" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I123" r:id="rId122" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I124" r:id="rId123" display="https://doi.org/10.1021/jo025594y "/>
+    <hyperlink ref="I90" r:id="rId89" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
+    <hyperlink ref="I91" r:id="rId90" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
+    <hyperlink ref="I92" r:id="rId91" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
+    <hyperlink ref="I93" r:id="rId92" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
+    <hyperlink ref="I94" r:id="rId93" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
+    <hyperlink ref="I95" r:id="rId94" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
+    <hyperlink ref="I96" r:id="rId95" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
+    <hyperlink ref="I97" r:id="rId96" display="https://doi.org/10.1021/jo00106a012 "/>
+    <hyperlink ref="I98" r:id="rId97" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
+    <hyperlink ref="I99" r:id="rId98" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
+    <hyperlink ref="I100" r:id="rId99" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
+    <hyperlink ref="I101" r:id="rId100" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
+    <hyperlink ref="I102" r:id="rId101" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
+    <hyperlink ref="I103" r:id="rId102" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
+    <hyperlink ref="I104" r:id="rId103" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
+    <hyperlink ref="I105" r:id="rId104" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
+    <hyperlink ref="I106" r:id="rId105" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
+    <hyperlink ref="I107" r:id="rId106" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
+    <hyperlink ref="I108" r:id="rId107" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
+    <hyperlink ref="I109" r:id="rId108" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
+    <hyperlink ref="I110" r:id="rId109" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
+    <hyperlink ref="I111" r:id="rId110" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
+    <hyperlink ref="I112" r:id="rId111" display="https://doi.org/10.1021/jo025594y "/>
+    <hyperlink ref="I113" r:id="rId112" display="https://doi.org/10.1021/jo025594y "/>
+    <hyperlink ref="I114" r:id="rId113" display="https://doi.org/10.1021/jo025594y "/>
+    <hyperlink ref="I115" r:id="rId114" display="https://doi.org/10.1021/jo025594y "/>
+    <hyperlink ref="I116" r:id="rId115" display="https://doi.org/10.1021/jo025594y "/>
+    <hyperlink ref="I117" r:id="rId116" display="https://doi.org/10.1021/jo025594y "/>
+    <hyperlink ref="I118" r:id="rId117" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
+    <hyperlink ref="I119" r:id="rId118" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
+    <hyperlink ref="I120" r:id="rId119" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
+    <hyperlink ref="I121" r:id="rId120" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
+    <hyperlink ref="I122" r:id="rId121" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
+    <hyperlink ref="I123" r:id="rId122" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
+    <hyperlink ref="I124" r:id="rId123" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
     <hyperlink ref="I125" r:id="rId124" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
     <hyperlink ref="I126" r:id="rId125" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
     <hyperlink ref="I127" r:id="rId126" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
     <hyperlink ref="I128" r:id="rId127" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I129" r:id="rId128" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I130" r:id="rId129" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I131" r:id="rId130" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I132" r:id="rId131" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I133" r:id="rId132" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I134" r:id="rId133" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I135" r:id="rId134" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>

--- a/sampledata/DIP.xlsx
+++ b/sampledata/DIP.xlsx
@@ -1,17 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac_poclab/PycharmProjects/CoMFA_model/sampledata/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9042BF-4F39-4D47-97B1-DA6365C3D49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="22440" windowHeight="17180" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1 - DIP-chloride_origin_0206" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="シート1 - DIP-chloride_origin_0206" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -22,46 +38,46 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="227">
   <si>
-    <t xml:space="preserve">entry</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SMILES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ee.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature[celcius]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">er.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">solvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">location</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">citation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCC(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">THF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table III</t>
+    <t>entry</t>
+  </si>
+  <si>
+    <t>SMILES</t>
+  </si>
+  <si>
+    <t>ee.</t>
+  </si>
+  <si>
+    <t>temperature[celcius]</t>
+  </si>
+  <si>
+    <t>temperature</t>
+  </si>
+  <si>
+    <t>er.</t>
+  </si>
+  <si>
+    <t>solvent</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Reference url</t>
+  </si>
+  <si>
+    <t>citation</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>CCC(=O)C</t>
+  </si>
+  <si>
+    <t>THF</t>
+  </si>
+  <si>
+    <t>Table III</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/ja00213a030 </t>
@@ -74,7 +90,7 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">H. C. Brown,</t>
+      <t>H. C. Brown,</t>
     </r>
     <r>
       <rPr>
@@ -96,13 +112,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">J. Am. Chem. Soc.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>J. Am. Chem. Soc.</t>
     </r>
     <r>
       <rPr>
@@ -115,13 +131,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1988</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1988</t>
     </r>
     <r>
       <rPr>
@@ -134,77 +150,77 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">110</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 1539-1546.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCCCCC(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table IV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)CCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)CCCCCCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)C(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c12ccccc1CCC2(=O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c12ccccc1CCCC2(=O)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1c2ccccc2ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ncccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s1cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCOC(=O)C(C)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">None</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table V.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BrCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table I.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>110</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 1539-1546.</t>
+    </r>
+  </si>
+  <si>
+    <t>CCCCCCC(=O)C</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>Table IV</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCC</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCC2(=O)</t>
+  </si>
+  <si>
+    <t>c12ccccc1CCCC2(=O)</t>
+  </si>
+  <si>
+    <t>c1c2ccccc2ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>c1ncccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>s1cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Table V.</t>
+  </si>
+  <si>
+    <t>BrCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>Table I.</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/jo00248a005 </t>
@@ -221,13 +237,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">J. Org. Chem.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>J. Org. Chem.</t>
     </r>
     <r>
       <rPr>
@@ -240,13 +256,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1988</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1988</t>
     </r>
     <r>
       <rPr>
@@ -259,44 +275,44 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">53</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 2916-2920.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ICC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1cc(Br)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1cc(Cl)ccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1CCCCC1C(=O)C</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>53</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 2916-2920.</t>
+    </r>
+  </si>
+  <si>
+    <t>ICC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCl</t>
+  </si>
+  <si>
+    <t>c1cc(Cl)ccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>ClCC(=O)c1c(Cl)cc(Cl)cc1</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1c2cc(Cl)ccc2C(=O)CCC</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)C</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/jo00280a013 </t>
@@ -313,13 +329,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">J. Org. Chem.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>J. Org. Chem.</t>
     </r>
     <r>
       <rPr>
@@ -332,13 +348,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1989</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1989</t>
     </r>
     <r>
       <rPr>
@@ -351,35 +367,35 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">54</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 4504-4511.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C1CCCCC1C(=O)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1CCCCC1C(=O)CCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1CCCC1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>54</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 4504-4511.</t>
+    </r>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)CC</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C(=O)CCC</t>
+  </si>
+  <si>
+    <t>C1CCCC1C(=O)C</t>
+  </si>
+  <si>
+    <t>c1ccccc1C2(c1ccccc1)C(=O)CCC2</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/ja00165a036 </t>
@@ -396,13 +412,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">J. Am. Chem.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>J. Am. Chem.</t>
     </r>
     <r>
       <rPr>
@@ -415,7 +431,7 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10.5"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -425,13 +441,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1990</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1990</t>
     </r>
     <r>
       <rPr>
@@ -444,32 +460,32 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">112</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 3483.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">reagent = (+)-B-chlorodiisopinocampheylborane, room temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I/C=C/C(=O)CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq3</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>112</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 3483.</t>
+    </r>
+  </si>
+  <si>
+    <t>reagent = (+)-B-chlorodiisopinocampheylborane, room temperature</t>
+  </si>
+  <si>
+    <t>I/C=C/C(=O)CCCCC</t>
+  </si>
+  <si>
+    <t>eq3</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/ar00013a003 </t>
@@ -486,13 +502,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Acc. Chem. Res.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Acc. Chem. Res.</t>
     </r>
     <r>
       <rPr>
@@ -505,13 +521,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1992</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1992</t>
     </r>
     <r>
       <rPr>
@@ -524,65 +540,65 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">25</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 16-24.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">I/C=C/C(=O)C1CCCC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eq4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure 11.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1cc(Br)ccc1C(=O)CCCl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1ccc(OC)cc1C(=O)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC(C)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure 15.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown Cyp group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC(C(=O)OCC)(C)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC1(C)C(=O)CCC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COC(=O)[C@@]1(C)C(=O)CCC1</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 16-24.</t>
+    </r>
+  </si>
+  <si>
+    <t>I/C=C/C(=O)C1CCCC1</t>
+  </si>
+  <si>
+    <t>eq4</t>
+  </si>
+  <si>
+    <t>COCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>Figure 11.</t>
+  </si>
+  <si>
+    <t>c1cc([N+]([O-])=O)ccc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>Brc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>c1cc(Br)ccc1C(=O)CCCl</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)cc1C(=O)CC</t>
+  </si>
+  <si>
+    <t>CC(C)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>Figure 15.</t>
+  </si>
+  <si>
+    <t>unknown Cyp group</t>
+  </si>
+  <si>
+    <t>CC(C(=O)OCC)(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>CC1(C)C(=O)CCC1</t>
+  </si>
+  <si>
+    <t>COC(=O)[C@@]1(C)C(=O)CCC1</t>
   </si>
   <si>
     <r>
@@ -592,71 +608,70 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">96%ee at -25</t>
+      <t>96%ee at -25</t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="ヒラギノ角ゴ ProN W3"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">℃</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CC1(C)C(=O)CCCC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1CCCC12C(=O)CCC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCCCCCCC#CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(C)(C)C(=O)C#CCCCCCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCCCCCCC#CC(=O)C(C)(C)CC=C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&gt;99%ee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC(C)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Figure 18.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1/C=C/C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C1C=CCCC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C#CC(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C#CC(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
+        <charset val="1"/>
+      </rPr>
+      <t>℃</t>
+    </r>
+  </si>
+  <si>
+    <t>CC1(C)C(=O)CCCC1</t>
+  </si>
+  <si>
+    <t>C1CCCC12C(=O)CCC2</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(C)(C)C(=O)C#CCCCCCCCC</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)CC=C</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(C)CCC</t>
+  </si>
+  <si>
+    <t>&gt;99%ee</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(C)(CC)CCC</t>
+  </si>
+  <si>
+    <t>CCCCCCCCC#CC(=O)C(CC)(CC)CCC</t>
+  </si>
+  <si>
+    <t>CC(C)C(=O)C</t>
+  </si>
+  <si>
+    <t>Figure 18.</t>
+  </si>
+  <si>
+    <t>ClCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>c1ccccc1/C=C/C(=O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=CCCC1</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C</t>
+  </si>
+  <si>
+    <t>C#CC(=O)C</t>
+  </si>
+  <si>
+    <t>Table 1</t>
+  </si>
+  <si>
+    <t>https://pubs.acs.org/doi/epdf/10.1021/jo00034a034</t>
   </si>
   <si>
     <r>
@@ -670,14 +685,14 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">et al</t>
+      <t>et al</t>
     </r>
     <r>
       <rPr>
@@ -690,14 +705,14 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">J. Org. Chem</t>
+      <t>J. Org. Chem</t>
     </r>
     <r>
       <rPr>
@@ -710,14 +725,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1992</t>
+      <t>1992</t>
     </r>
     <r>
       <rPr>
@@ -726,26 +741,26 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 57, 2379-2386</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C#CC(=O)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C#CC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1CCCCC1C#CC(=O)C(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C1CCCCC1C#CC(=O)C(C)(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1cc(F)ccc1C(=O)CCCCl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Et2O</t>
+      <t>, 57, 2379-2386</t>
+    </r>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)CC</t>
+  </si>
+  <si>
+    <t>c1ccccc1C#CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C#CC(=O)C(C)C</t>
+  </si>
+  <si>
+    <t>C1CCCCC1C#CC(=O)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>c1cc(F)ccc1C(=O)CCCCl</t>
+  </si>
+  <si>
+    <t>Et2O</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/S0957-4166(00)82208-9 </t>
@@ -762,13 +777,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tetrahedron Asymm.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Tetrahedron Asymm.</t>
     </r>
     <r>
       <rPr>
@@ -781,13 +796,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1993</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1993</t>
     </r>
     <r>
       <rPr>
@@ -800,29 +815,29 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 2399-2400.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)c1c2ccccc2ccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table3</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 2399-2400.</t>
+    </r>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)c1c2ccccc2ccc1</t>
+  </si>
+  <si>
+    <t>Table3</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/S0040-4020(01)80530-5 </t>
@@ -839,28 +854,28 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1</t>
-    </r>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <i val="true"/>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">993</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
+      <t>993</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
@@ -875,17 +890,17 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">49</t>
-    </r>
-    <r>
-      <rPr>
-        <i val="true"/>
+      <t>49</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 17</t>
+      <t>, 17</t>
     </r>
     <r>
       <rPr>
@@ -894,38 +909,38 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">25-1738.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)c1cc2ccccc2cc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O=C(C(F)(F)F)c1c(cccc2)c2cc3c1cccc3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)C(F)(F)F)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)C(F)(F)C(F)(F)F)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)CCCCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)CCCCCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)C1CCCCC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C#Cc1ccccc1)C(C)(C)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table1</t>
+      <t>25-1738.</t>
+    </r>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)c1cc2ccccc2cc1</t>
+  </si>
+  <si>
+    <t>O=C(C(F)(F)F)c1c(cccc2)c2cc3c1cccc3</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)c1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)CCCCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)CCCCCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C1CCCCC1</t>
+  </si>
+  <si>
+    <t>C(=O)(C#Cc1ccccc1)C(C)(C)C</t>
+  </si>
+  <si>
+    <t>neat</t>
+  </si>
+  <si>
+    <t>Table1</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/0957-4166(94)80056-1 </t>
@@ -942,13 +957,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Tetrahedron,</t>
+      <t>Tetrahedron,</t>
     </r>
     <r>
       <rPr>
@@ -961,13 +976,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1994</t>
+      <t>1994</t>
     </r>
     <r>
       <rPr>
@@ -980,13 +995,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5</t>
+      <t>5</t>
     </r>
     <r>
       <rPr>
@@ -995,47 +1010,47 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 1061-1074.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CF)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Table2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CF)C#CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)C(F)(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#CCCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1a</t>
+      <t>, 1061-1074.</t>
+    </r>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(CF)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>Table2</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#Cc1ccccc1</t>
+  </si>
+  <si>
+    <t>C(=O)(CF)C#CCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(C(F)(F)C(F)(F)C(F)(F)F)C#CCCCC</t>
+  </si>
+  <si>
+    <t>Oc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>1a</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(00)76780-3 </t>
@@ -1052,13 +1067,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tetrahedron Lett.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Tetrahedron Lett.</t>
     </r>
     <r>
       <rPr>
@@ -1071,13 +1086,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1994</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1994</t>
     </r>
     <r>
       <rPr>
@@ -1090,104 +1105,104 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">35</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 2141-2144.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Coordination, room temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Special Coordination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1cccc(OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1ccc(OC)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1ccc(C)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1ccc(F)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1c(Cl)cc(Cl)cc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(O)cccc1)c2ccccc2</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 2141-2144.</t>
+    </r>
+  </si>
+  <si>
+    <t>Special Coordination, room temperature</t>
+  </si>
+  <si>
+    <t>Oc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>Oc1ccc(OC)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>Oc1ccc(C)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>Oc1ccc(F)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>Oc1c(Cl)cc(Cl)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>Special Coordination</t>
+  </si>
+  <si>
+    <t>Oc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>COc1cccc(OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>COc1ccc(OC)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>COc1ccc(C)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>COc1ccc(F)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>COc1c(Cl)cc(Cl)cc1C(=O)C</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>COc1cc(OC)cc(C(=O)OC)c1C(=O)C</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(O)cccc1)c2ccccc2</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/0040-4039(95)00609-G </t>
@@ -1204,13 +1219,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Tetrahedron letters,</t>
+      <t>Tetrahedron letters,</t>
     </r>
     <r>
       <rPr>
@@ -1223,13 +1238,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1995</t>
+      <t>1995</t>
     </r>
     <r>
       <rPr>
@@ -1242,13 +1257,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">36,</t>
+      <t>36,</t>
     </r>
     <r>
       <rPr>
@@ -1261,28 +1276,28 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Special Coordination, OH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(N)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(O)ccc(Oc3c(C)cc([N+]([O-])=O)cc3(C))c1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(OC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(F)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(Cl)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(CBr)C(F)(F)F</t>
+    <t>Special Coordination, OH</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(O)ccc(Oc3c(C)cc([N+]([O-])=O)cc3(C))c1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(OC)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(F)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(Cl)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(CBr)C(F)(F)F</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/jo00106a012 </t>
@@ -1299,13 +1314,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">The Journal of Organic Chemistry</t>
+      <t>The Journal of Organic Chemistry</t>
     </r>
     <r>
       <rPr>
@@ -1318,13 +1333,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1995</t>
+      <t>1995</t>
     </r>
     <r>
       <rPr>
@@ -1337,13 +1352,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">60</t>
+      <t>60</t>
     </r>
     <r>
       <rPr>
@@ -1352,11 +1367,11 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 41-46.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C(=O)OC)cccc1)C</t>
+      <t>, 41-46.</t>
+    </r>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)C</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/0040-4039(96)00260-2 </t>
@@ -1373,13 +1388,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Tetrahedron letters</t>
+      <t>Tetrahedron letters</t>
     </r>
     <r>
       <rPr>
@@ -1392,13 +1407,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">37</t>
+      <t>37</t>
     </r>
     <r>
       <rPr>
@@ -1407,32 +1422,32 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">, 2205-2208.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C(=O)O)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C(=O)OC)cccc1)CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C(=O)OC)cccc1)CCCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(C(=O)OC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc1ccccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unknown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">table</t>
+      <t>, 2205-2208.</t>
+    </r>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)O)cccc1)C</t>
+  </si>
+  <si>
+    <t>6days</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)CC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)CCCC</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(C(=O)OC)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>COc1ccccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>table</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(97)00440-1 </t>
@@ -1449,13 +1464,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">et al.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>et al.</t>
     </r>
     <r>
       <rPr>
@@ -1468,13 +1483,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Tetrahedron Lett.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>Tetrahedron Lett.</t>
     </r>
     <r>
       <rPr>
@@ -1487,13 +1502,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">1997</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>1997</t>
     </r>
     <r>
       <rPr>
@@ -1506,35 +1521,35 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">38</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 2641-2644.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">COc(c1)cccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc(cc1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COc(c(OC)c1)ccc1C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(N)cccc1)C</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>38</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 2641-2644.</t>
+    </r>
+  </si>
+  <si>
+    <t>COc(c1)cccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>COc(cc1)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>COc(c(OC)c1)ccc1C(=O)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N)cccc1)C</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/S0040-4039(96)02489-6 </t>
@@ -1551,13 +1566,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Tetrahedron letters</t>
+      <t>Tetrahedron letters</t>
     </r>
     <r>
       <rPr>
@@ -1570,13 +1585,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1997</t>
+      <t>1997</t>
     </r>
     <r>
       <rPr>
@@ -1589,13 +1604,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
+        <i/>
         <sz val="10"/>
         <rFont val="Times New Roman"/>
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">38</t>
+      <t>38</t>
     </r>
     <r>
       <rPr>
@@ -1604,32 +1619,32 @@
         <family val="1"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">., 957-960.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">rt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(NC)cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(NC)cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(N[Li])cccc1)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rt,7days</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C(=O)(c1c(N[Li])cccc1)c2ccccc2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no.4</t>
+      <t>., 957-960.</t>
+    </r>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(NC)cccc1)C</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(NC)cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N[Li])cccc1)C</t>
+  </si>
+  <si>
+    <t>rt,7days</t>
+  </si>
+  <si>
+    <t>C(=O)(c1c(N[Li])cccc1)c2ccccc2</t>
+  </si>
+  <si>
+    <t>COC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>no.4</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1021/jo025594y </t>
@@ -1646,13 +1661,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">J. Org.Chem.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>J. Org.Chem.</t>
     </r>
     <r>
       <rPr>
@@ -1665,13 +1680,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2002</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2002</t>
     </r>
     <r>
       <rPr>
@@ -1684,56 +1699,56 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">67</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 5315-5319.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">CCOC(=O)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCOC(=O)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)CCC(=O)OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CCOC(=O)CCC(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c1ccccc1C(=O)CCCC(=O)OCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no.33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClC(Cl)C(=O)c1ccccc1</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>67</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 5315-5319.</t>
+    </r>
+  </si>
+  <si>
+    <t>CCOC(=O)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>no.6</t>
+  </si>
+  <si>
+    <t>CCOC(=O)C(=O)C</t>
+  </si>
+  <si>
+    <t>no.8</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCC(=O)OCC</t>
+  </si>
+  <si>
+    <t>no.20</t>
+  </si>
+  <si>
+    <t>CCOC(=O)CCC(=O)C</t>
+  </si>
+  <si>
+    <t>no.23</t>
+  </si>
+  <si>
+    <t>c1ccccc1C(=O)CCCC(=O)OCC</t>
+  </si>
+  <si>
+    <t>no.33</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)c1ccccc1</t>
   </si>
   <si>
     <t xml:space="preserve">https://doi.org/10.1016/j.jfluchem.2007.04.015 </t>
@@ -1750,13 +1765,13 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">J Fluor Chem.</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>J Fluor Chem.</t>
     </r>
     <r>
       <rPr>
@@ -1769,13 +1784,13 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">2007</t>
+        <b/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>2007</t>
     </r>
     <r>
       <rPr>
@@ -1788,108 +1803,85 @@
     </r>
     <r>
       <rPr>
-        <i val="true"/>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">128</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, 844-850.</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">ClC(Cl)(Cl)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">room temperature</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClCC(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClC(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ClC(Cl)(Cl)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCC(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC(F)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC(F)(F)C(=O)c1ccccc1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FCC(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC(F)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11b</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FC(F)(F)C(=O)C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13b</t>
+        <i/>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>128</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, 844-850.</t>
+    </r>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>room temperature</t>
+  </si>
+  <si>
+    <t>ClCC(=O)C</t>
+  </si>
+  <si>
+    <t>9a</t>
+  </si>
+  <si>
+    <t>ClC(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>11a</t>
+  </si>
+  <si>
+    <t>ClC(Cl)(Cl)C(=O)C</t>
+  </si>
+  <si>
+    <t>13a</t>
+  </si>
+  <si>
+    <t>FCC(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FC(F)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(=O)c1ccccc1</t>
+  </si>
+  <si>
+    <t>FCC(=O)C</t>
+  </si>
+  <si>
+    <t>9b</t>
+  </si>
+  <si>
+    <t>FC(F)C(=O)C</t>
+  </si>
+  <si>
+    <t>11b</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C(=O)C</t>
+  </si>
+  <si>
+    <t>13b</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1917,21 +1909,21 @@
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10.5"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
@@ -1939,15 +1931,14 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="ヒラギノ角ゴ ProN W3"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1955,7 +1946,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -1963,22 +1954,22 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <i val="true"/>
+      <b/>
+      <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
-      <i val="true"/>
+      <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -1989,6 +1980,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Tsukushi A Round Gothic Bold"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2006,175 +2003,483 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thin"/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="16">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="true"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K128"/>
+  <dimension ref="A1:AMK128"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A124" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B128" activeCellId="0" sqref="B128"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H111" sqref="H111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="10.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="12.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="95.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="68.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="10"/>
+    <col min="1" max="1" width="6.3984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="41.3984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
+    <col min="7" max="8" width="10.59765625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="95.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="68.59765625" style="1" customWidth="1"/>
+    <col min="12" max="1025" width="10" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" ht="18.5" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2209,25 +2514,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="n">
+    <row r="2" spans="1:11" ht="18.5" customHeight="1">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>-4</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <f aca="false">273+D2</f>
-        <v>248</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <f aca="false">50+C2/2</f>
+      <c r="D2" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E2" s="4">
+        <f t="shared" ref="E2:E33" si="0">273+D2</f>
+        <v>248</v>
+      </c>
+      <c r="F2" s="4">
+        <f t="shared" ref="F2:F33" si="1">50+C2/2</f>
         <v>48</v>
       </c>
       <c r="G2" s="5" t="s">
@@ -2244,25 +2549,25 @@
       </c>
       <c r="K2" s="4"/>
     </row>
-    <row r="3" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+    <row r="3" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="8" t="n">
+      <c r="C3" s="8">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <f aca="false">273+D3</f>
-        <v>248</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <f aca="false">50+C3/2</f>
+      <c r="D3" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F3" s="4">
+        <f t="shared" si="1"/>
         <v>53.5</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -2279,26 +2584,26 @@
       </c>
       <c r="K3" s="4"/>
     </row>
-    <row r="4" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+    <row r="4" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="8" t="n">
+      <c r="C4" s="8">
         <v>-97.4</v>
       </c>
-      <c r="D4" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E4" s="4" t="n">
-        <f aca="false">273+D4</f>
-        <v>248</v>
-      </c>
-      <c r="F4" s="4" t="n">
-        <f aca="false">50+C4/2</f>
-        <v>1.3</v>
+      <c r="D4" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999972</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>12</v>
@@ -2314,26 +2619,26 @@
       </c>
       <c r="K4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>-97.3</v>
       </c>
-      <c r="D5" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <f aca="false">273+D5</f>
-        <v>248</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <f aca="false">50+C5/2</f>
-        <v>1.35</v>
+      <c r="D5" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.3500000000000014</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>12</v>
@@ -2349,26 +2654,26 @@
       </c>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+    <row r="6" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>-98.2</v>
       </c>
-      <c r="D6" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <f aca="false">273+D6</f>
-        <v>248</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <f aca="false">50+C6/2</f>
-        <v>0.899999999999999</v>
+      <c r="D6" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999858</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>12</v>
@@ -2384,25 +2689,25 @@
       </c>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+    <row r="7" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="8">
         <v>-95</v>
       </c>
-      <c r="D7" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <f aca="false">273+D7</f>
-        <v>248</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <f aca="false">50+C7/2</f>
+      <c r="D7" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E7" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="1"/>
         <v>2.5</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -2419,25 +2724,25 @@
       </c>
       <c r="K7" s="4"/>
     </row>
-    <row r="8" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+    <row r="8" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>-90</v>
       </c>
-      <c r="D8" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <f aca="false">273+D8</f>
-        <v>248</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <f aca="false">50+C8/2</f>
+      <c r="D8" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E8" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="G8" s="5" t="s">
@@ -2454,25 +2759,25 @@
       </c>
       <c r="K8" s="4"/>
     </row>
-    <row r="9" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+    <row r="9" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>79.3</v>
       </c>
-      <c r="D9" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <f aca="false">273+D9</f>
-        <v>248</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <f aca="false">50+C9/2</f>
+      <c r="D9" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E9" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="1"/>
         <v>89.65</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -2489,26 +2794,26 @@
       </c>
       <c r="K9" s="4"/>
     </row>
-    <row r="10" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+    <row r="10" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>-97.4</v>
       </c>
-      <c r="D10" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <f aca="false">273+D10</f>
-        <v>248</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <f aca="false">50+C10/2</f>
-        <v>1.3</v>
+      <c r="D10" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999972</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>12</v>
@@ -2524,26 +2829,26 @@
       </c>
       <c r="K10" s="4"/>
     </row>
-    <row r="11" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+    <row r="11" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="8">
         <v>-87.4</v>
       </c>
-      <c r="D11" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <f aca="false">273+D11</f>
-        <v>248</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <f aca="false">50+C11/2</f>
-        <v>6.3</v>
+      <c r="D11" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E11" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F11" s="4">
+        <f t="shared" si="1"/>
+        <v>6.2999999999999972</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>12</v>
@@ -2559,26 +2864,26 @@
       </c>
       <c r="K11" s="4"/>
     </row>
-    <row r="12" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+    <row r="12" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>-98.1</v>
       </c>
-      <c r="D12" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E12" s="4" t="n">
-        <f aca="false">273+D12</f>
-        <v>248</v>
-      </c>
-      <c r="F12" s="4" t="n">
-        <f aca="false">50+C12/2</f>
-        <v>0.950000000000003</v>
+      <c r="D12" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E12" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F12" s="4">
+        <f t="shared" si="1"/>
+        <v>0.95000000000000284</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>12</v>
@@ -2594,26 +2899,26 @@
       </c>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+    <row r="13" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>-92.4</v>
       </c>
-      <c r="D13" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E13" s="4" t="n">
-        <f aca="false">273+D13</f>
-        <v>248</v>
-      </c>
-      <c r="F13" s="4" t="n">
-        <f aca="false">50+C13/2</f>
-        <v>3.8</v>
+      <c r="D13" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E13" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F13" s="4">
+        <f t="shared" si="1"/>
+        <v>3.7999999999999972</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>12</v>
@@ -2629,26 +2934,26 @@
       </c>
       <c r="K13" s="4"/>
     </row>
-    <row r="14" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+    <row r="14" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="8">
         <v>-91.3</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E14" s="4" t="n">
-        <f aca="false">273+D14</f>
-        <v>248</v>
-      </c>
-      <c r="F14" s="4" t="n">
-        <f aca="false">50+C14/2</f>
-        <v>4.35</v>
+      <c r="D14" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E14" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="1"/>
+        <v>4.3500000000000014</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
@@ -2664,25 +2969,25 @@
       </c>
       <c r="K14" s="4"/>
     </row>
-    <row r="15" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+    <row r="15" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="8">
         <v>-84</v>
       </c>
-      <c r="D15" s="4" t="n">
+      <c r="D15" s="4">
         <v>25</v>
       </c>
-      <c r="E15" s="4" t="n">
-        <f aca="false">273+D15</f>
+      <c r="E15" s="4">
+        <f t="shared" si="0"/>
         <v>298</v>
       </c>
-      <c r="F15" s="4" t="n">
-        <f aca="false">50+C15/2</f>
+      <c r="F15" s="4">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="G15" s="5" t="s">
@@ -2699,25 +3004,25 @@
       </c>
       <c r="K15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+    <row r="16" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>86</v>
       </c>
-      <c r="D16" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E16" s="4" t="n">
-        <f aca="false">273+D16</f>
-        <v>248</v>
-      </c>
-      <c r="F16" s="4" t="n">
-        <f aca="false">50+C16/2</f>
+      <c r="D16" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="1"/>
         <v>93</v>
       </c>
       <c r="G16" s="5" t="s">
@@ -2734,25 +3039,25 @@
       </c>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+    <row r="17" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="8">
         <v>67</v>
       </c>
-      <c r="D17" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E17" s="4" t="n">
-        <f aca="false">273+D17</f>
-        <v>248</v>
-      </c>
-      <c r="F17" s="4" t="n">
-        <f aca="false">50+C17/2</f>
+      <c r="D17" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E17" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="G17" s="5" t="s">
@@ -2769,25 +3074,25 @@
       </c>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+    <row r="18" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>-97</v>
       </c>
-      <c r="D18" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E18" s="4" t="n">
-        <f aca="false">273+D18</f>
-        <v>248</v>
-      </c>
-      <c r="F18" s="4" t="n">
-        <f aca="false">50+C18/2</f>
+      <c r="D18" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G18" s="5" t="s">
@@ -2804,25 +3109,25 @@
       </c>
       <c r="K18" s="4"/>
     </row>
-    <row r="19" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+    <row r="19" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="8">
         <v>-97</v>
       </c>
-      <c r="D19" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E19" s="4" t="n">
-        <f aca="false">273+D19</f>
-        <v>248</v>
-      </c>
-      <c r="F19" s="4" t="n">
-        <f aca="false">50+C19/2</f>
+      <c r="D19" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E19" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F19" s="4">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G19" s="5" t="s">
@@ -2839,25 +3144,25 @@
       </c>
       <c r="K19" s="4"/>
     </row>
-    <row r="20" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+    <row r="20" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>-98</v>
       </c>
-      <c r="D20" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E20" s="4" t="n">
-        <f aca="false">273+D20</f>
-        <v>248</v>
-      </c>
-      <c r="F20" s="4" t="n">
-        <f aca="false">50+C20/2</f>
+      <c r="D20" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E20" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F20" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G20" s="5" t="s">
@@ -2874,25 +3179,25 @@
       </c>
       <c r="K20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+    <row r="21" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="8">
         <v>93</v>
       </c>
-      <c r="D21" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E21" s="4" t="n">
-        <f aca="false">273+D21</f>
-        <v>248</v>
-      </c>
-      <c r="F21" s="4" t="n">
-        <f aca="false">50+C21/2</f>
+      <c r="D21" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E21" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F21" s="4">
+        <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
       <c r="G21" s="5" t="s">
@@ -2909,25 +3214,25 @@
       </c>
       <c r="K21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+    <row r="22" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="8">
         <v>-98</v>
       </c>
-      <c r="D22" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E22" s="4" t="n">
-        <f aca="false">273+D22</f>
-        <v>248</v>
-      </c>
-      <c r="F22" s="4" t="n">
-        <f aca="false">50+C22/2</f>
+      <c r="D22" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G22" s="5" t="s">
@@ -2944,25 +3249,25 @@
       </c>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="n">
+    <row r="23" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="8">
         <v>-26</v>
       </c>
-      <c r="D23" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E23" s="4" t="n">
-        <f aca="false">273+D23</f>
-        <v>248</v>
-      </c>
-      <c r="F23" s="4" t="n">
-        <f aca="false">50+C23/2</f>
+      <c r="D23" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E23" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F23" s="4">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="G23" s="5" t="s">
@@ -2979,25 +3284,25 @@
       </c>
       <c r="K23" s="4"/>
     </row>
-    <row r="24" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="n">
+    <row r="24" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="8">
         <v>-23</v>
       </c>
-      <c r="D24" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E24" s="4" t="n">
-        <f aca="false">273+D24</f>
-        <v>248</v>
-      </c>
-      <c r="F24" s="4" t="n">
-        <f aca="false">50+C24/2</f>
+      <c r="D24" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E24" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F24" s="4">
+        <f t="shared" si="1"/>
         <v>38.5</v>
       </c>
       <c r="G24" s="5" t="s">
@@ -3014,25 +3319,25 @@
       </c>
       <c r="K24" s="4"/>
     </row>
-    <row r="25" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="n">
+    <row r="25" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="8">
         <v>-38</v>
       </c>
-      <c r="D25" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E25" s="4" t="n">
-        <f aca="false">273+D25</f>
-        <v>248</v>
-      </c>
-      <c r="F25" s="4" t="n">
-        <f aca="false">50+C25/2</f>
+      <c r="D25" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E25" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F25" s="4">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="G25" s="5" t="s">
@@ -3049,25 +3354,25 @@
       </c>
       <c r="K25" s="4"/>
     </row>
-    <row r="26" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="n">
+    <row r="26" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="8">
         <v>-45</v>
       </c>
-      <c r="D26" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E26" s="4" t="n">
-        <f aca="false">273+D26</f>
-        <v>248</v>
-      </c>
-      <c r="F26" s="4" t="n">
-        <f aca="false">50+C26/2</f>
+      <c r="D26" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
       <c r="G26" s="5" t="s">
@@ -3084,31 +3389,31 @@
       </c>
       <c r="K26" s="4"/>
     </row>
-    <row r="27" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="n">
+    <row r="27" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="8">
         <v>-96</v>
       </c>
-      <c r="D27" s="4" t="n">
+      <c r="D27" s="4">
         <v>20</v>
       </c>
-      <c r="E27" s="4" t="n">
-        <f aca="false">273+D27</f>
+      <c r="E27" s="4">
+        <f t="shared" si="0"/>
         <v>293</v>
       </c>
-      <c r="F27" s="4" t="n">
-        <f aca="false">50+C27/2</f>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="4" t="n">
+      <c r="H27" s="4">
         <v>12</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -3121,25 +3426,25 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4" t="n">
+    <row r="28" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="8">
         <v>-85</v>
       </c>
-      <c r="D28" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <f aca="false">273+D28</f>
-        <v>248</v>
-      </c>
-      <c r="F28" s="4" t="n">
-        <f aca="false">50+C28/2</f>
+      <c r="D28" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E28" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F28" s="4">
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="G28" s="5" t="s">
@@ -3156,25 +3461,25 @@
       </c>
       <c r="K28" s="4"/>
     </row>
-    <row r="29" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="8">
         <v>-76</v>
       </c>
-      <c r="D29" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E29" s="4" t="n">
-        <f aca="false">273+D29</f>
-        <v>248</v>
-      </c>
-      <c r="F29" s="4" t="n">
-        <f aca="false">50+C29/2</f>
+      <c r="D29" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E29" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F29" s="4">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="G29" s="5" t="s">
@@ -3191,25 +3496,25 @@
       </c>
       <c r="K29" s="4"/>
     </row>
-    <row r="30" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="n">
+    <row r="30" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="8">
         <v>95</v>
       </c>
-      <c r="D30" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E30" s="4" t="n">
-        <f aca="false">273+D30</f>
-        <v>248</v>
-      </c>
-      <c r="F30" s="4" t="n">
-        <f aca="false">50+C30/2</f>
+      <c r="D30" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
       <c r="G30" s="4"/>
@@ -3224,25 +3529,25 @@
       </c>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="8">
         <v>-97</v>
       </c>
-      <c r="D31" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E31" s="4" t="n">
-        <f aca="false">273+D31</f>
-        <v>248</v>
-      </c>
-      <c r="F31" s="4" t="n">
-        <f aca="false">50+C31/2</f>
+      <c r="D31" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E31" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F31" s="4">
+        <f t="shared" si="1"/>
         <v>1.5</v>
       </c>
       <c r="G31" s="4"/>
@@ -3255,25 +3560,25 @@
       </c>
       <c r="K31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="8">
         <v>-99</v>
       </c>
-      <c r="D32" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E32" s="4" t="n">
-        <f aca="false">273+D32</f>
-        <v>248</v>
-      </c>
-      <c r="F32" s="4" t="n">
-        <f aca="false">50+C32/2</f>
+      <c r="D32" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E32" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F32" s="4">
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G32" s="4"/>
@@ -3286,25 +3591,25 @@
       </c>
       <c r="K32" s="4"/>
     </row>
-    <row r="33" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="8">
         <v>-98</v>
       </c>
-      <c r="D33" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E33" s="4" t="n">
-        <f aca="false">273+D33</f>
-        <v>248</v>
-      </c>
-      <c r="F33" s="4" t="n">
-        <f aca="false">50+C33/2</f>
+      <c r="D33" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" si="0"/>
+        <v>248</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="G33" s="4"/>
@@ -3317,25 +3622,25 @@
       </c>
       <c r="K33" s="4"/>
     </row>
-    <row r="34" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="8">
         <v>-96</v>
       </c>
-      <c r="D34" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E34" s="4" t="n">
-        <f aca="false">273+D34</f>
-        <v>248</v>
-      </c>
-      <c r="F34" s="4" t="n">
-        <f aca="false">50+C34/2</f>
+      <c r="D34" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" ref="E34:E65" si="2">273+D34</f>
+        <v>248</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ref="F34:F65" si="3">50+C34/2</f>
         <v>2</v>
       </c>
       <c r="G34" s="4"/>
@@ -3348,25 +3653,25 @@
       </c>
       <c r="K34" s="4"/>
     </row>
-    <row r="35" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4" t="n">
+    <row r="35" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="8">
         <v>-95</v>
       </c>
-      <c r="D35" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E35" s="4" t="n">
-        <f aca="false">273+D35</f>
-        <v>248</v>
-      </c>
-      <c r="F35" s="4" t="n">
-        <f aca="false">50+C35/2</f>
+      <c r="D35" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E35" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F35" s="4">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="G35" s="4"/>
@@ -3383,25 +3688,25 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4" t="n">
+    <row r="36" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="8">
         <v>-82</v>
       </c>
-      <c r="D36" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E36" s="4" t="n">
-        <f aca="false">273+D36</f>
-        <v>248</v>
-      </c>
-      <c r="F36" s="4" t="n">
-        <f aca="false">50+C36/2</f>
+      <c r="D36" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E36" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F36" s="4">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G36" s="4"/>
@@ -3414,25 +3719,25 @@
       </c>
       <c r="K36" s="4"/>
     </row>
-    <row r="37" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4" t="n">
+    <row r="37" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="8">
         <v>-98</v>
       </c>
-      <c r="D37" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E37" s="4" t="n">
-        <f aca="false">273+D37</f>
-        <v>248</v>
-      </c>
-      <c r="F37" s="4" t="n">
-        <f aca="false">50+C37/2</f>
+      <c r="D37" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E37" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F37" s="4">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G37" s="4"/>
@@ -3445,25 +3750,25 @@
       </c>
       <c r="K37" s="4"/>
     </row>
-    <row r="38" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4" t="n">
+    <row r="38" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="8">
         <v>-93</v>
       </c>
-      <c r="D38" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E38" s="4" t="n">
-        <f aca="false">273+D38</f>
-        <v>248</v>
-      </c>
-      <c r="F38" s="4" t="n">
-        <f aca="false">50+C38/2</f>
+      <c r="D38" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="3"/>
         <v>3.5</v>
       </c>
       <c r="G38" s="4"/>
@@ -3478,25 +3783,25 @@
         <v>70</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4" t="n">
+    <row r="39" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="8">
         <v>-91</v>
       </c>
-      <c r="D39" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E39" s="4" t="n">
-        <f aca="false">273+D39</f>
-        <v>248</v>
-      </c>
-      <c r="F39" s="4" t="n">
-        <f aca="false">50+C39/2</f>
+      <c r="D39" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E39" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F39" s="4">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="G39" s="4"/>
@@ -3509,25 +3814,25 @@
       </c>
       <c r="K39" s="4"/>
     </row>
-    <row r="40" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="n">
+    <row r="40" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C40" s="8" t="n">
+      <c r="C40" s="8">
         <v>-95</v>
       </c>
-      <c r="D40" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E40" s="4" t="n">
-        <f aca="false">273+D40</f>
-        <v>248</v>
-      </c>
-      <c r="F40" s="4" t="n">
-        <f aca="false">50+C40/2</f>
+      <c r="D40" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E40" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F40" s="4">
+        <f t="shared" si="3"/>
         <v>2.5</v>
       </c>
       <c r="G40" s="4"/>
@@ -3540,25 +3845,25 @@
       </c>
       <c r="K40" s="4"/>
     </row>
-    <row r="41" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="n">
+    <row r="41" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="8">
         <v>98</v>
       </c>
-      <c r="D41" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E41" s="4" t="n">
-        <f aca="false">273+D41</f>
-        <v>248</v>
-      </c>
-      <c r="F41" s="4" t="n">
-        <f aca="false">50+C41/2</f>
+      <c r="D41" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E41" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F41" s="4">
+        <f t="shared" si="3"/>
         <v>99</v>
       </c>
       <c r="G41" s="4"/>
@@ -3571,26 +3876,26 @@
       </c>
       <c r="K41" s="4"/>
     </row>
-    <row r="42" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="n">
+    <row r="42" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="8" t="n">
-        <v>-97</v>
-      </c>
-      <c r="D42" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E42" s="4" t="n">
-        <f aca="false">273+D42</f>
-        <v>248</v>
-      </c>
-      <c r="F42" s="4" t="n">
-        <f aca="false">50+C42/2</f>
-        <v>1.5</v>
+      <c r="C42" s="8">
+        <v>97</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="3"/>
+        <v>98.5</v>
       </c>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -3602,25 +3907,25 @@
       </c>
       <c r="K42" s="4"/>
     </row>
-    <row r="43" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4" t="n">
+    <row r="43" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="8" t="n">
+      <c r="C43" s="8">
         <v>96</v>
       </c>
-      <c r="D43" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E43" s="4" t="n">
-        <f aca="false">273+D43</f>
-        <v>248</v>
-      </c>
-      <c r="F43" s="4" t="n">
-        <f aca="false">50+C43/2</f>
+      <c r="D43" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F43" s="4">
+        <f t="shared" si="3"/>
         <v>98</v>
       </c>
       <c r="G43" s="4"/>
@@ -3633,25 +3938,25 @@
       </c>
       <c r="K43" s="4"/>
     </row>
-    <row r="44" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="n">
+    <row r="44" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="8" t="n">
+      <c r="C44" s="8">
         <v>99</v>
       </c>
-      <c r="D44" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E44" s="4" t="n">
-        <f aca="false">273+D44</f>
-        <v>248</v>
-      </c>
-      <c r="F44" s="4" t="n">
-        <f aca="false">50+C44/2</f>
+      <c r="D44" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E44" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F44" s="4">
+        <f t="shared" si="3"/>
         <v>99.5</v>
       </c>
       <c r="G44" s="4"/>
@@ -3666,25 +3971,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="n">
+    <row r="45" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C45" s="8" t="n">
+      <c r="C45" s="8">
         <v>99</v>
       </c>
-      <c r="D45" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E45" s="4" t="n">
-        <f aca="false">273+D45</f>
-        <v>248</v>
-      </c>
-      <c r="F45" s="4" t="n">
-        <f aca="false">50+C45/2</f>
+      <c r="D45" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E45" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F45" s="4">
+        <f t="shared" si="3"/>
         <v>99.5</v>
       </c>
       <c r="G45" s="4"/>
@@ -3699,25 +4004,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="4" t="n">
+    <row r="46" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C46" s="8" t="n">
+      <c r="C46" s="8">
         <v>99</v>
       </c>
-      <c r="D46" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E46" s="4" t="n">
-        <f aca="false">273+D46</f>
-        <v>248</v>
-      </c>
-      <c r="F46" s="4" t="n">
-        <f aca="false">50+C46/2</f>
+      <c r="D46" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="3"/>
         <v>99.5</v>
       </c>
       <c r="G46" s="4"/>
@@ -3732,25 +4037,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="n">
+    <row r="47" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C47" s="8" t="n">
+      <c r="C47" s="8">
         <v>-32</v>
       </c>
-      <c r="D47" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E47" s="4" t="n">
-        <f aca="false">273+D47</f>
-        <v>248</v>
-      </c>
-      <c r="F47" s="4" t="n">
-        <f aca="false">50+C47/2</f>
+      <c r="D47" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E47" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F47" s="4">
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="G47" s="4"/>
@@ -3765,25 +4070,25 @@
       </c>
       <c r="K47" s="4"/>
     </row>
-    <row r="48" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4" t="n">
+    <row r="48" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="8" t="n">
+      <c r="C48" s="8">
         <v>95</v>
       </c>
-      <c r="D48" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E48" s="4" t="n">
-        <f aca="false">273+D48</f>
-        <v>248</v>
-      </c>
-      <c r="F48" s="4" t="n">
-        <f aca="false">50+C48/2</f>
+      <c r="D48" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F48" s="4">
+        <f t="shared" si="3"/>
         <v>97.5</v>
       </c>
       <c r="G48" s="4"/>
@@ -3796,25 +4101,25 @@
       </c>
       <c r="K48" s="4"/>
     </row>
-    <row r="49" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="n">
+    <row r="49" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C49" s="8" t="n">
+      <c r="C49" s="8">
         <v>-81</v>
       </c>
-      <c r="D49" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E49" s="4" t="n">
-        <f aca="false">273+D49</f>
-        <v>248</v>
-      </c>
-      <c r="F49" s="4" t="n">
-        <f aca="false">50+C49/2</f>
+      <c r="D49" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F49" s="4">
+        <f t="shared" si="3"/>
         <v>9.5</v>
       </c>
       <c r="G49" s="4"/>
@@ -3827,25 +4132,25 @@
       </c>
       <c r="K49" s="4"/>
     </row>
-    <row r="50" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4" t="n">
+    <row r="50" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C50" s="8" t="n">
+      <c r="C50" s="8">
         <v>-36</v>
       </c>
-      <c r="D50" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E50" s="4" t="n">
-        <f aca="false">273+D50</f>
-        <v>248</v>
-      </c>
-      <c r="F50" s="4" t="n">
-        <f aca="false">50+C50/2</f>
+      <c r="D50" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="G50" s="4"/>
@@ -3858,25 +4163,25 @@
       </c>
       <c r="K50" s="4"/>
     </row>
-    <row r="51" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4" t="n">
+    <row r="51" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
       <c r="B51" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="10" t="n">
+      <c r="C51" s="10">
         <v>21</v>
       </c>
-      <c r="D51" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E51" s="4" t="n">
-        <f aca="false">273+D51</f>
-        <v>248</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <f aca="false">50+C51/2</f>
+      <c r="D51" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E51" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F51" s="4">
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
       <c r="G51" s="11"/>
@@ -3889,25 +4194,25 @@
       </c>
       <c r="K51" s="11"/>
     </row>
-    <row r="52" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="n">
+    <row r="52" spans="1:11" ht="23" customHeight="1">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C52" s="12" t="n">
+      <c r="C52" s="12">
         <v>17</v>
       </c>
-      <c r="D52" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E52" s="4" t="n">
-        <f aca="false">273+D52</f>
-        <v>248</v>
-      </c>
-      <c r="F52" s="4" t="n">
-        <f aca="false">50+C52/2</f>
+      <c r="D52" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E52" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F52" s="4">
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
       <c r="G52" s="4"/>
@@ -3922,25 +4227,25 @@
       </c>
       <c r="K52" s="4"/>
     </row>
-    <row r="53" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4" t="n">
+    <row r="53" spans="1:11" ht="23" customHeight="1">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
       <c r="B53" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="12" t="n">
+      <c r="C53" s="12">
         <v>28</v>
       </c>
-      <c r="D53" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E53" s="4" t="n">
-        <f aca="false">273+D53</f>
-        <v>248</v>
-      </c>
-      <c r="F53" s="4" t="n">
-        <f aca="false">50+C53/2</f>
+      <c r="D53" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E53" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F53" s="4">
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="G53" s="4"/>
@@ -3953,25 +4258,25 @@
       </c>
       <c r="K53" s="4"/>
     </row>
-    <row r="54" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4" t="n">
+    <row r="54" spans="1:11" ht="23" customHeight="1">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="12" t="n">
+      <c r="C54" s="12">
         <v>53</v>
       </c>
-      <c r="D54" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E54" s="4" t="n">
-        <f aca="false">273+D54</f>
-        <v>248</v>
-      </c>
-      <c r="F54" s="4" t="n">
-        <f aca="false">50+C54/2</f>
+      <c r="D54" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="3"/>
         <v>76.5</v>
       </c>
       <c r="G54" s="4"/>
@@ -3984,25 +4289,25 @@
       </c>
       <c r="K54" s="4"/>
     </row>
-    <row r="55" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4" t="n">
+    <row r="55" spans="1:11" ht="23" customHeight="1">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="12" t="n">
+      <c r="C55" s="12">
         <v>39</v>
       </c>
-      <c r="D55" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E55" s="4" t="n">
-        <f aca="false">273+D55</f>
-        <v>248</v>
-      </c>
-      <c r="F55" s="4" t="n">
-        <f aca="false">50+C55/2</f>
+      <c r="D55" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E55" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F55" s="4">
+        <f t="shared" si="3"/>
         <v>69.5</v>
       </c>
       <c r="G55" s="4"/>
@@ -4015,25 +4320,25 @@
       </c>
       <c r="K55" s="4"/>
     </row>
-    <row r="56" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4" t="n">
+    <row r="56" spans="1:11" ht="23" customHeight="1">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
       <c r="B56" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="C56" s="12" t="n">
+      <c r="C56" s="12">
         <v>97</v>
       </c>
-      <c r="D56" s="4" t="n">
+      <c r="D56" s="4">
         <v>23</v>
       </c>
-      <c r="E56" s="4" t="n">
-        <f aca="false">273+D56</f>
+      <c r="E56" s="4">
+        <f t="shared" si="2"/>
         <v>296</v>
       </c>
-      <c r="F56" s="4" t="n">
-        <f aca="false">50+C56/2</f>
+      <c r="F56" s="4">
+        <f t="shared" si="3"/>
         <v>98.5</v>
       </c>
       <c r="G56" s="4"/>
@@ -4046,25 +4351,25 @@
       </c>
       <c r="K56" s="4"/>
     </row>
-    <row r="57" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4" t="n">
+    <row r="57" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C57" s="8" t="n">
+      <c r="C57" s="8">
         <v>-98</v>
       </c>
-      <c r="D57" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E57" s="4" t="n">
-        <f aca="false">273+D57</f>
-        <v>248</v>
-      </c>
-      <c r="F57" s="4" t="n">
-        <f aca="false">50+C57/2</f>
+      <c r="D57" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E57" s="4">
+        <f t="shared" si="2"/>
+        <v>248</v>
+      </c>
+      <c r="F57" s="4">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G57" s="5" t="s">
@@ -4079,25 +4384,25 @@
       </c>
       <c r="K57" s="4"/>
     </row>
-    <row r="58" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="n">
+    <row r="58" spans="1:11" ht="23" customHeight="1">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C58" s="4" t="n">
+      <c r="C58" s="4">
         <v>-78</v>
       </c>
-      <c r="D58" s="4" t="n">
+      <c r="D58" s="4">
         <v>25</v>
       </c>
-      <c r="E58" s="4" t="n">
-        <f aca="false">273+D58</f>
+      <c r="E58" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F58" s="4" t="n">
-        <f aca="false">50+C58/2</f>
+      <c r="F58" s="4">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="G58" s="4"/>
@@ -4112,25 +4417,25 @@
       </c>
       <c r="K58" s="4"/>
     </row>
-    <row r="59" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="n">
+    <row r="59" spans="1:11" ht="23" customHeight="1">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C59" s="4" t="n">
+      <c r="C59" s="4">
         <v>-91</v>
       </c>
-      <c r="D59" s="4" t="n">
+      <c r="D59" s="4">
         <v>25</v>
       </c>
-      <c r="E59" s="4" t="n">
-        <f aca="false">273+D59</f>
+      <c r="E59" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F59" s="4" t="n">
-        <f aca="false">50+C59/2</f>
+      <c r="F59" s="4">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="G59" s="4"/>
@@ -4143,25 +4448,25 @@
       </c>
       <c r="K59" s="4"/>
     </row>
-    <row r="60" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4" t="n">
+    <row r="60" spans="1:11" ht="23" customHeight="1">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C60" s="4" t="n">
+      <c r="C60" s="4">
         <v>-82</v>
       </c>
-      <c r="D60" s="4" t="n">
+      <c r="D60" s="4">
         <v>25</v>
       </c>
-      <c r="E60" s="4" t="n">
-        <f aca="false">273+D60</f>
+      <c r="E60" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F60" s="4" t="n">
-        <f aca="false">50+C60/2</f>
+      <c r="F60" s="4">
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="G60" s="4"/>
@@ -4174,25 +4479,25 @@
       </c>
       <c r="K60" s="4"/>
     </row>
-    <row r="61" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="n">
+    <row r="61" spans="1:11" ht="23" customHeight="1">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C61" s="4" t="n">
+      <c r="C61" s="4">
         <v>-92</v>
       </c>
-      <c r="D61" s="4" t="n">
+      <c r="D61" s="4">
         <v>25</v>
       </c>
-      <c r="E61" s="4" t="n">
-        <f aca="false">273+D61</f>
+      <c r="E61" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F61" s="4" t="n">
-        <f aca="false">50+C61/2</f>
+      <c r="F61" s="4">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G61" s="4"/>
@@ -4205,25 +4510,25 @@
       </c>
       <c r="K61" s="4"/>
     </row>
-    <row r="62" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4" t="n">
+    <row r="62" spans="1:11" ht="23" customHeight="1">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="4" t="n">
+      <c r="C62" s="4">
         <v>-87</v>
       </c>
-      <c r="D62" s="4" t="n">
+      <c r="D62" s="4">
         <v>25</v>
       </c>
-      <c r="E62" s="4" t="n">
-        <f aca="false">273+D62</f>
+      <c r="E62" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F62" s="4" t="n">
-        <f aca="false">50+C62/2</f>
+      <c r="F62" s="4">
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="G62" s="4"/>
@@ -4236,25 +4541,25 @@
       </c>
       <c r="K62" s="4"/>
     </row>
-    <row r="63" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="n">
+    <row r="63" spans="1:11" ht="23" customHeight="1">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C63" s="4" t="n">
+      <c r="C63" s="4">
         <v>-92</v>
       </c>
-      <c r="D63" s="4" t="n">
+      <c r="D63" s="4">
         <v>25</v>
       </c>
-      <c r="E63" s="4" t="n">
-        <f aca="false">273+D63</f>
+      <c r="E63" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F63" s="4" t="n">
-        <f aca="false">50+C63/2</f>
+      <c r="F63" s="4">
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G63" s="4"/>
@@ -4267,25 +4572,25 @@
       </c>
       <c r="K63" s="4"/>
     </row>
-    <row r="64" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4" t="n">
+    <row r="64" spans="1:11" ht="23" customHeight="1">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C64" s="4" t="n">
+      <c r="C64" s="4">
         <v>-91</v>
       </c>
-      <c r="D64" s="4" t="n">
+      <c r="D64" s="4">
         <v>25</v>
       </c>
-      <c r="E64" s="4" t="n">
-        <f aca="false">273+D64</f>
+      <c r="E64" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F64" s="4" t="n">
-        <f aca="false">50+C64/2</f>
+      <c r="F64" s="4">
+        <f t="shared" si="3"/>
         <v>4.5</v>
       </c>
       <c r="G64" s="4"/>
@@ -4298,25 +4603,25 @@
       </c>
       <c r="K64" s="4"/>
     </row>
-    <row r="65" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4" t="n">
+    <row r="65" spans="1:11" ht="23" customHeight="1">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C65" s="4" t="n">
+      <c r="C65" s="4">
         <v>-87</v>
       </c>
-      <c r="D65" s="4" t="n">
+      <c r="D65" s="4">
         <v>25</v>
       </c>
-      <c r="E65" s="4" t="n">
-        <f aca="false">273+D65</f>
+      <c r="E65" s="4">
+        <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="F65" s="4" t="n">
-        <f aca="false">50+C65/2</f>
+      <c r="F65" s="4">
+        <f t="shared" si="3"/>
         <v>6.5</v>
       </c>
       <c r="G65" s="4"/>
@@ -4329,25 +4634,25 @@
       </c>
       <c r="K65" s="4"/>
     </row>
-    <row r="66" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="n">
+    <row r="66" spans="1:11" ht="23" customHeight="1">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C66" s="4" t="n">
+      <c r="C66" s="4">
         <v>99</v>
       </c>
-      <c r="D66" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E66" s="4" t="n">
-        <f aca="false">273+D66</f>
-        <v>248</v>
-      </c>
-      <c r="F66" s="4" t="n">
-        <f aca="false">50+C66/2</f>
+      <c r="D66" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E66" s="4">
+        <f t="shared" ref="E66:E97" si="4">273+D66</f>
+        <v>248</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" ref="F66:F97" si="5">50+C66/2</f>
         <v>99.5</v>
       </c>
       <c r="G66" s="4" t="s">
@@ -4364,25 +4669,25 @@
       </c>
       <c r="K66" s="4"/>
     </row>
-    <row r="67" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4" t="n">
+    <row r="67" spans="1:11" ht="23" customHeight="1">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C67" s="4" t="n">
+      <c r="C67" s="4">
         <v>-98</v>
       </c>
-      <c r="D67" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E67" s="4" t="n">
-        <f aca="false">273+D67</f>
-        <v>248</v>
-      </c>
-      <c r="F67" s="4" t="n">
-        <f aca="false">50+C67/2</f>
+      <c r="D67" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E67" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
       <c r="G67" s="4" t="s">
@@ -4397,25 +4702,25 @@
       </c>
       <c r="K67" s="4"/>
     </row>
-    <row r="68" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4" t="n">
+    <row r="68" spans="1:11" ht="23" customHeight="1">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C68" s="4" t="n">
+      <c r="C68" s="4">
         <v>28</v>
       </c>
-      <c r="D68" s="4" t="n">
+      <c r="D68" s="4">
         <v>25</v>
       </c>
-      <c r="E68" s="4" t="n">
-        <f aca="false">273+D68</f>
+      <c r="E68" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F68" s="4" t="n">
-        <f aca="false">50+C68/2</f>
+      <c r="F68" s="4">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="G68" s="4" t="s">
@@ -4432,25 +4737,25 @@
       </c>
       <c r="K68" s="4"/>
     </row>
-    <row r="69" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4" t="n">
+    <row r="69" spans="1:11" ht="23" customHeight="1">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C69" s="4" t="n">
+      <c r="C69" s="4">
         <v>-38</v>
       </c>
-      <c r="D69" s="4" t="n">
+      <c r="D69" s="4">
         <v>25</v>
       </c>
-      <c r="E69" s="4" t="n">
-        <f aca="false">273+D69</f>
+      <c r="E69" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F69" s="4" t="n">
-        <f aca="false">50+C69/2</f>
+      <c r="F69" s="4">
+        <f t="shared" si="5"/>
         <v>31</v>
       </c>
       <c r="G69" s="4" t="s">
@@ -4465,25 +4770,25 @@
       </c>
       <c r="K69" s="4"/>
     </row>
-    <row r="70" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4" t="n">
+    <row r="70" spans="1:11" ht="23" customHeight="1">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C70" s="4" t="n">
+      <c r="C70" s="4">
         <v>-96</v>
       </c>
-      <c r="D70" s="4" t="n">
+      <c r="D70" s="4">
         <v>25</v>
       </c>
-      <c r="E70" s="4" t="n">
-        <f aca="false">273+D70</f>
+      <c r="E70" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F70" s="4" t="n">
-        <f aca="false">50+C70/2</f>
+      <c r="F70" s="4">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G70" s="4" t="s">
@@ -4498,25 +4803,25 @@
       </c>
       <c r="K70" s="4"/>
     </row>
-    <row r="71" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4" t="n">
+    <row r="71" spans="1:11" ht="23" customHeight="1">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C71" s="4" t="n">
+      <c r="C71" s="4">
         <v>-94</v>
       </c>
-      <c r="D71" s="4" t="n">
+      <c r="D71" s="4">
         <v>25</v>
       </c>
-      <c r="E71" s="4" t="n">
-        <f aca="false">273+D71</f>
+      <c r="E71" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F71" s="4" t="n">
-        <f aca="false">50+C71/2</f>
+      <c r="F71" s="4">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G71" s="4" t="s">
@@ -4531,25 +4836,25 @@
       </c>
       <c r="K71" s="4"/>
     </row>
-    <row r="72" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4" t="n">
+    <row r="72" spans="1:11" ht="23" customHeight="1">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C72" s="4" t="n">
+      <c r="C72" s="4">
         <v>46</v>
       </c>
-      <c r="D72" s="4" t="n">
+      <c r="D72" s="4">
         <v>25</v>
       </c>
-      <c r="E72" s="4" t="n">
-        <f aca="false">273+D72</f>
+      <c r="E72" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F72" s="4" t="n">
-        <f aca="false">50+C72/2</f>
+      <c r="F72" s="4">
+        <f t="shared" si="5"/>
         <v>73</v>
       </c>
       <c r="G72" s="4" t="s">
@@ -4564,25 +4869,25 @@
       </c>
       <c r="K72" s="4"/>
     </row>
-    <row r="73" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4" t="n">
+    <row r="73" spans="1:11" ht="23" customHeight="1">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C73" s="4" t="n">
+      <c r="C73" s="4">
         <v>-15</v>
       </c>
-      <c r="D73" s="4" t="n">
+      <c r="D73" s="4">
         <v>25</v>
       </c>
-      <c r="E73" s="4" t="n">
-        <f aca="false">273+D73</f>
+      <c r="E73" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F73" s="4" t="n">
-        <f aca="false">50+C73/2</f>
+      <c r="F73" s="4">
+        <f t="shared" si="5"/>
         <v>42.5</v>
       </c>
       <c r="G73" s="4" t="s">
@@ -4597,25 +4902,25 @@
       </c>
       <c r="K73" s="4"/>
     </row>
-    <row r="74" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4" t="n">
+    <row r="74" spans="1:11" ht="23" customHeight="1">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C74" s="4" t="n">
+      <c r="C74" s="4">
         <v>-99</v>
       </c>
-      <c r="D74" s="4" t="n">
+      <c r="D74" s="4">
         <v>25</v>
       </c>
-      <c r="E74" s="4" t="n">
-        <f aca="false">273+D74</f>
+      <c r="E74" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F74" s="4" t="n">
-        <f aca="false">50+C74/2</f>
+      <c r="F74" s="4">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="G74" s="4" t="s">
@@ -4630,25 +4935,25 @@
       </c>
       <c r="K74" s="4"/>
     </row>
-    <row r="75" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="4" t="n">
+    <row r="75" spans="1:11" ht="23" customHeight="1">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C75" s="4" t="n">
+      <c r="C75" s="4">
         <v>-96</v>
       </c>
-      <c r="D75" s="4" t="n">
+      <c r="D75" s="4">
         <v>25</v>
       </c>
-      <c r="E75" s="4" t="n">
-        <f aca="false">273+D75</f>
+      <c r="E75" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F75" s="4" t="n">
-        <f aca="false">50+C75/2</f>
+      <c r="F75" s="4">
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="G75" s="4" t="s">
@@ -4663,25 +4968,25 @@
       </c>
       <c r="K75" s="4"/>
     </row>
-    <row r="76" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4" t="n">
+    <row r="76" spans="1:11" ht="23" customHeight="1">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C76" s="4" t="n">
+      <c r="C76" s="4">
         <v>-92</v>
       </c>
-      <c r="D76" s="4" t="n">
+      <c r="D76" s="4">
         <v>25</v>
       </c>
-      <c r="E76" s="4" t="n">
-        <f aca="false">273+D76</f>
+      <c r="E76" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F76" s="4" t="n">
-        <f aca="false">50+C76/2</f>
+      <c r="F76" s="4">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="G76" s="4" t="s">
@@ -4696,25 +5001,25 @@
       </c>
       <c r="K76" s="4"/>
     </row>
-    <row r="77" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4" t="n">
+    <row r="77" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C77" s="8" t="n">
+      <c r="C77" s="8">
         <v>90</v>
       </c>
-      <c r="D77" s="4" t="n">
+      <c r="D77" s="4">
         <v>20</v>
       </c>
-      <c r="E77" s="4" t="n">
-        <f aca="false">273+D77</f>
+      <c r="E77" s="4">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="F77" s="4" t="n">
-        <f aca="false">50+C77/2</f>
+      <c r="F77" s="4">
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="G77" s="5" t="s">
@@ -4733,25 +5038,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4" t="n">
+    <row r="78" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="C78" s="8" t="n">
+      <c r="C78" s="8">
         <v>96</v>
       </c>
-      <c r="D78" s="4" t="n">
+      <c r="D78" s="4">
         <v>20</v>
       </c>
-      <c r="E78" s="4" t="n">
-        <f aca="false">273+D78</f>
+      <c r="E78" s="4">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="F78" s="4" t="n">
-        <f aca="false">50+C78/2</f>
+      <c r="F78" s="4">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="G78" s="5" t="s">
@@ -4770,25 +5075,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="n">
+    <row r="79" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C79" s="8" t="n">
+      <c r="C79" s="8">
         <v>82</v>
       </c>
-      <c r="D79" s="4" t="n">
+      <c r="D79" s="4">
         <v>20</v>
       </c>
-      <c r="E79" s="4" t="n">
-        <f aca="false">273+D79</f>
+      <c r="E79" s="4">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="F79" s="4" t="n">
-        <f aca="false">50+C79/2</f>
+      <c r="F79" s="4">
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="G79" s="5" t="s">
@@ -4807,25 +5112,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="n">
+    <row r="80" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C80" s="8" t="n">
+      <c r="C80" s="8">
         <v>82</v>
       </c>
-      <c r="D80" s="4" t="n">
+      <c r="D80" s="4">
         <v>20</v>
       </c>
-      <c r="E80" s="4" t="n">
-        <f aca="false">273+D80</f>
+      <c r="E80" s="4">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="F80" s="4" t="n">
-        <f aca="false">50+C80/2</f>
+      <c r="F80" s="4">
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="G80" s="5" t="s">
@@ -4844,25 +5149,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4" t="n">
+    <row r="81" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C81" s="8" t="n">
+      <c r="C81" s="8">
         <v>79</v>
       </c>
-      <c r="D81" s="4" t="n">
+      <c r="D81" s="4">
         <v>20</v>
       </c>
-      <c r="E81" s="4" t="n">
-        <f aca="false">273+D81</f>
+      <c r="E81" s="4">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="F81" s="4" t="n">
-        <f aca="false">50+C81/2</f>
+      <c r="F81" s="4">
+        <f t="shared" si="5"/>
         <v>89.5</v>
       </c>
       <c r="G81" s="5" t="s">
@@ -4881,25 +5186,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="n">
+    <row r="82" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C82" s="8" t="n">
+      <c r="C82" s="8">
         <v>78</v>
       </c>
-      <c r="D82" s="4" t="n">
+      <c r="D82" s="4">
         <v>0</v>
       </c>
-      <c r="E82" s="4" t="n">
-        <f aca="false">273+D82</f>
+      <c r="E82" s="4">
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="F82" s="4" t="n">
-        <f aca="false">50+C82/2</f>
+      <c r="F82" s="4">
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
       <c r="G82" s="5" t="s">
@@ -4918,25 +5223,25 @@
         <v>140</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="n">
+    <row r="83" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C83" s="8" t="n">
+      <c r="C83" s="8">
         <v>90</v>
       </c>
-      <c r="D83" s="4" t="n">
+      <c r="D83" s="4">
         <v>20</v>
       </c>
-      <c r="E83" s="4" t="n">
-        <f aca="false">273+D83</f>
+      <c r="E83" s="4">
+        <f t="shared" si="4"/>
         <v>293</v>
       </c>
-      <c r="F83" s="4" t="n">
-        <f aca="false">50+C83/2</f>
+      <c r="F83" s="4">
+        <f t="shared" si="5"/>
         <v>95</v>
       </c>
       <c r="G83" s="5" t="s">
@@ -4955,25 +5260,25 @@
         <v>129</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="n">
+    <row r="84" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C84" s="8" t="n">
+      <c r="C84" s="8">
         <v>20</v>
       </c>
-      <c r="D84" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E84" s="4" t="n">
-        <f aca="false">273+D84</f>
-        <v>248</v>
-      </c>
-      <c r="F84" s="4" t="n">
-        <f aca="false">50+C84/2</f>
+      <c r="D84" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E84" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="F84" s="4">
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="G84" s="5" t="s">
@@ -4988,27 +5293,27 @@
       <c r="J84" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K84" s="0"/>
-    </row>
-    <row r="85" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4" t="n">
+      <c r="K84"/>
+    </row>
+    <row r="85" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C85" s="8" t="n">
+      <c r="C85" s="8">
         <v>-93</v>
       </c>
-      <c r="D85" s="4" t="n">
+      <c r="D85" s="4">
         <v>0</v>
       </c>
-      <c r="E85" s="4" t="n">
-        <f aca="false">273+D85</f>
+      <c r="E85" s="4">
+        <f t="shared" si="4"/>
         <v>273</v>
       </c>
-      <c r="F85" s="4" t="n">
-        <f aca="false">50+C85/2</f>
+      <c r="F85" s="4">
+        <f t="shared" si="5"/>
         <v>3.5</v>
       </c>
       <c r="G85" s="5" t="s">
@@ -5025,25 +5330,25 @@
       </c>
       <c r="K85" s="4"/>
     </row>
-    <row r="86" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4" t="n">
+    <row r="86" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C86" s="8" t="n">
+      <c r="C86" s="8">
         <v>-95</v>
       </c>
-      <c r="D86" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E86" s="4" t="n">
-        <f aca="false">273+D86</f>
-        <v>248</v>
-      </c>
-      <c r="F86" s="4" t="n">
-        <f aca="false">50+C86/2</f>
+      <c r="D86" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E86" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="F86" s="4">
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="G86" s="5" t="s">
@@ -5060,25 +5365,25 @@
       </c>
       <c r="K86" s="4"/>
     </row>
-    <row r="87" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="n">
+    <row r="87" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C87" s="8" t="n">
+      <c r="C87" s="8">
         <v>-94</v>
       </c>
-      <c r="D87" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E87" s="4" t="n">
-        <f aca="false">273+D87</f>
-        <v>248</v>
-      </c>
-      <c r="F87" s="4" t="n">
-        <f aca="false">50+C87/2</f>
+      <c r="D87" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E87" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="F87" s="4">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G87" s="5" t="s">
@@ -5095,25 +5400,25 @@
       </c>
       <c r="K87" s="4"/>
     </row>
-    <row r="88" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="n">
+    <row r="88" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C88" s="8" t="n">
+      <c r="C88" s="8">
         <v>-94</v>
       </c>
-      <c r="D88" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E88" s="4" t="n">
-        <f aca="false">273+D88</f>
-        <v>248</v>
-      </c>
-      <c r="F88" s="4" t="n">
-        <f aca="false">50+C88/2</f>
+      <c r="D88" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E88" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="F88" s="4">
+        <f t="shared" si="5"/>
         <v>3</v>
       </c>
       <c r="G88" s="5" t="s">
@@ -5130,25 +5435,25 @@
       </c>
       <c r="K88" s="4"/>
     </row>
-    <row r="89" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4" t="n">
+    <row r="89" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C89" s="8" t="n">
+      <c r="C89" s="8">
         <v>-20</v>
       </c>
-      <c r="D89" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E89" s="4" t="n">
-        <f aca="false">273+D89</f>
-        <v>248</v>
-      </c>
-      <c r="F89" s="4" t="n">
-        <f aca="false">50+C89/2</f>
+      <c r="D89" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E89" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="F89" s="4">
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="G89" s="5" t="s">
@@ -5165,25 +5470,25 @@
       </c>
       <c r="K89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="4" t="n">
+    <row r="90" spans="1:11" ht="23" customHeight="1">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="C90" s="4" t="n">
+      <c r="C90" s="4">
         <v>96.4</v>
       </c>
-      <c r="D90" s="4" t="n">
+      <c r="D90" s="4">
         <v>-15</v>
       </c>
-      <c r="E90" s="4" t="n">
-        <f aca="false">273+D90</f>
+      <c r="E90" s="4">
+        <f t="shared" si="4"/>
         <v>258</v>
       </c>
-      <c r="F90" s="4" t="n">
-        <f aca="false">50+C90/2</f>
+      <c r="F90" s="4">
+        <f t="shared" si="5"/>
         <v>98.2</v>
       </c>
       <c r="G90" s="4" t="s">
@@ -5200,25 +5505,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A91" s="4" t="n">
+    <row r="91" spans="1:11" ht="23" customHeight="1">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C91" s="4" t="n">
+      <c r="C91" s="4">
         <v>88</v>
       </c>
-      <c r="D91" s="4" t="n">
+      <c r="D91" s="4">
         <v>25</v>
       </c>
-      <c r="E91" s="4" t="n">
-        <f aca="false">273+D91</f>
+      <c r="E91" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F91" s="4" t="n">
-        <f aca="false">50+C91/2</f>
+      <c r="F91" s="4">
+        <f t="shared" si="5"/>
         <v>94</v>
       </c>
       <c r="G91" s="4"/>
@@ -5231,25 +5536,25 @@
       </c>
       <c r="K91" s="4"/>
     </row>
-    <row r="92" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="4" t="n">
+    <row r="92" spans="1:11" ht="23" customHeight="1">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C92" s="4" t="n">
+      <c r="C92" s="4">
         <v>96.9</v>
       </c>
-      <c r="D92" s="4" t="n">
+      <c r="D92" s="4">
         <v>25</v>
       </c>
-      <c r="E92" s="4" t="n">
-        <f aca="false">273+D92</f>
+      <c r="E92" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F92" s="4" t="n">
-        <f aca="false">50+C92/2</f>
+      <c r="F92" s="4">
+        <f t="shared" si="5"/>
         <v>98.45</v>
       </c>
       <c r="G92" s="4"/>
@@ -5262,25 +5567,25 @@
       </c>
       <c r="K92" s="4"/>
     </row>
-    <row r="93" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="4" t="n">
+    <row r="93" spans="1:11" ht="23" customHeight="1">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C93" s="4" t="n">
+      <c r="C93" s="4">
         <v>0</v>
       </c>
-      <c r="D93" s="4" t="n">
+      <c r="D93" s="4">
         <v>25</v>
       </c>
-      <c r="E93" s="4" t="n">
-        <f aca="false">273+D93</f>
+      <c r="E93" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F93" s="4" t="n">
-        <f aca="false">50+C93/2</f>
+      <c r="F93" s="4">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G93" s="4"/>
@@ -5293,25 +5598,25 @@
       </c>
       <c r="K93" s="4"/>
     </row>
-    <row r="94" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A94" s="4" t="n">
+    <row r="94" spans="1:11" ht="23" customHeight="1">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C94" s="4" t="n">
+      <c r="C94" s="4">
         <v>28</v>
       </c>
-      <c r="D94" s="4" t="n">
+      <c r="D94" s="4">
         <v>25</v>
       </c>
-      <c r="E94" s="4" t="n">
-        <f aca="false">273+D94</f>
+      <c r="E94" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F94" s="4" t="n">
-        <f aca="false">50+C94/2</f>
+      <c r="F94" s="4">
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="G94" s="4"/>
@@ -5324,25 +5629,25 @@
       </c>
       <c r="K94" s="4"/>
     </row>
-    <row r="95" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A95" s="4" t="n">
+    <row r="95" spans="1:11" ht="23" customHeight="1">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C95" s="4" t="n">
+      <c r="C95" s="4">
         <v>15</v>
       </c>
-      <c r="D95" s="4" t="n">
+      <c r="D95" s="4">
         <v>25</v>
       </c>
-      <c r="E95" s="4" t="n">
-        <f aca="false">273+D95</f>
+      <c r="E95" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F95" s="4" t="n">
-        <f aca="false">50+C95/2</f>
+      <c r="F95" s="4">
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="G95" s="4"/>
@@ -5355,25 +5660,25 @@
       </c>
       <c r="K95" s="4"/>
     </row>
-    <row r="96" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A96" s="4" t="n">
+    <row r="96" spans="1:11" ht="23" customHeight="1">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C96" s="4" t="n">
+      <c r="C96" s="4">
         <v>0</v>
       </c>
-      <c r="D96" s="4" t="n">
+      <c r="D96" s="4">
         <v>25</v>
       </c>
-      <c r="E96" s="4" t="n">
-        <f aca="false">273+D96</f>
+      <c r="E96" s="4">
+        <f t="shared" si="4"/>
         <v>298</v>
       </c>
-      <c r="F96" s="4" t="n">
-        <f aca="false">50+C96/2</f>
+      <c r="F96" s="4">
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="G96" s="4"/>
@@ -5386,25 +5691,25 @@
       </c>
       <c r="K96" s="4"/>
     </row>
-    <row r="97" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4" t="n">
+    <row r="97" spans="1:11" ht="23" customHeight="1">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C97" s="4" t="n">
+      <c r="C97" s="4">
         <v>96</v>
       </c>
-      <c r="D97" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E97" s="4" t="n">
-        <f aca="false">273+D97</f>
-        <v>248</v>
-      </c>
-      <c r="F97" s="4" t="n">
-        <f aca="false">50+C97/2</f>
+      <c r="D97" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E97" s="4">
+        <f t="shared" si="4"/>
+        <v>248</v>
+      </c>
+      <c r="F97" s="4">
+        <f t="shared" si="5"/>
         <v>98</v>
       </c>
       <c r="G97" s="4" t="s">
@@ -5421,25 +5726,25 @@
       </c>
       <c r="K97" s="4"/>
     </row>
-    <row r="98" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A98" s="4" t="n">
+    <row r="98" spans="1:11" ht="23" customHeight="1">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C98" s="4" t="n">
+      <c r="C98" s="4">
         <v>-97</v>
       </c>
-      <c r="D98" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E98" s="4" t="n">
-        <f aca="false">273+D98</f>
-        <v>248</v>
-      </c>
-      <c r="F98" s="4" t="n">
-        <f aca="false">50+C98/2</f>
+      <c r="D98" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E98" s="4">
+        <f t="shared" ref="E98:E129" si="6">273+D98</f>
+        <v>248</v>
+      </c>
+      <c r="F98" s="4">
+        <f t="shared" ref="F98:F128" si="7">50+C98/2</f>
         <v>1.5</v>
       </c>
       <c r="G98" s="5" t="s">
@@ -5456,25 +5761,25 @@
       </c>
       <c r="K98" s="4"/>
     </row>
-    <row r="99" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A99" s="4" t="n">
+    <row r="99" spans="1:11" ht="23" customHeight="1">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C99" s="4" t="n">
+      <c r="C99" s="4">
         <v>80</v>
       </c>
-      <c r="D99" s="4" t="n">
+      <c r="D99" s="4">
         <v>25</v>
       </c>
-      <c r="E99" s="4" t="n">
-        <f aca="false">273+D99</f>
+      <c r="E99" s="4">
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="F99" s="4" t="n">
-        <f aca="false">50+C99/2</f>
+      <c r="F99" s="4">
+        <f t="shared" si="7"/>
         <v>90</v>
       </c>
       <c r="G99" s="4"/>
@@ -5489,25 +5794,25 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A100" s="4" t="n">
+    <row r="100" spans="1:11" ht="23" customHeight="1">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C100" s="4" t="n">
+      <c r="C100" s="4">
         <v>-98</v>
       </c>
-      <c r="D100" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E100" s="4" t="n">
-        <f aca="false">273+D100</f>
-        <v>248</v>
-      </c>
-      <c r="F100" s="4" t="n">
-        <f aca="false">50+C100/2</f>
+      <c r="D100" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E100" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F100" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G100" s="4"/>
@@ -5520,25 +5825,25 @@
       </c>
       <c r="K100" s="4"/>
     </row>
-    <row r="101" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A101" s="4" t="n">
+    <row r="101" spans="1:11" ht="23" customHeight="1">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C101" s="4" t="n">
+      <c r="C101" s="4">
         <v>-99</v>
       </c>
-      <c r="D101" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E101" s="4" t="n">
-        <f aca="false">273+D101</f>
-        <v>248</v>
-      </c>
-      <c r="F101" s="4" t="n">
-        <f aca="false">50+C101/2</f>
+      <c r="D101" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E101" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F101" s="4">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="G101" s="4"/>
@@ -5551,25 +5856,25 @@
       </c>
       <c r="K101" s="4"/>
     </row>
-    <row r="102" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A102" s="4" t="n">
+    <row r="102" spans="1:11" ht="23" customHeight="1">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C102" s="4" t="n">
+      <c r="C102" s="4">
         <v>30</v>
       </c>
-      <c r="D102" s="4" t="n">
+      <c r="D102" s="4">
         <v>25</v>
       </c>
-      <c r="E102" s="4" t="n">
-        <f aca="false">273+D102</f>
+      <c r="E102" s="4">
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="F102" s="4" t="n">
-        <f aca="false">50+C102/2</f>
+      <c r="F102" s="4">
+        <f t="shared" si="7"/>
         <v>65</v>
       </c>
       <c r="G102" s="4" t="s">
@@ -5584,25 +5889,25 @@
       </c>
       <c r="K102" s="4"/>
     </row>
-    <row r="103" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="4" t="n">
+    <row r="103" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C103" s="8" t="n">
+      <c r="C103" s="8">
         <v>-97</v>
       </c>
-      <c r="D103" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E103" s="4" t="n">
-        <f aca="false">273+D103</f>
-        <v>248</v>
-      </c>
-      <c r="F103" s="4" t="n">
-        <f aca="false">50+C103/2</f>
+      <c r="D103" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E103" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F103" s="4">
+        <f t="shared" si="7"/>
         <v>1.5</v>
       </c>
       <c r="G103" s="5" t="s">
@@ -5619,25 +5924,25 @@
       </c>
       <c r="K103" s="4"/>
     </row>
-    <row r="104" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4" t="n">
+    <row r="104" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C104" s="8" t="n">
+      <c r="C104" s="8">
         <v>-95</v>
       </c>
-      <c r="D104" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E104" s="4" t="n">
-        <f aca="false">273+D104</f>
-        <v>248</v>
-      </c>
-      <c r="F104" s="4" t="n">
-        <f aca="false">50+C104/2</f>
+      <c r="D104" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E104" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F104" s="4">
+        <f t="shared" si="7"/>
         <v>2.5</v>
       </c>
       <c r="G104" s="5" t="s">
@@ -5654,25 +5959,25 @@
       </c>
       <c r="K104" s="4"/>
     </row>
-    <row r="105" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4" t="n">
+    <row r="105" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C105" s="8" t="n">
+      <c r="C105" s="8">
         <v>-87</v>
       </c>
-      <c r="D105" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E105" s="4" t="n">
-        <f aca="false">273+D105</f>
-        <v>248</v>
-      </c>
-      <c r="F105" s="4" t="n">
-        <f aca="false">50+C105/2</f>
+      <c r="D105" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E105" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F105" s="4">
+        <f t="shared" si="7"/>
         <v>6.5</v>
       </c>
       <c r="G105" s="5" t="s">
@@ -5689,25 +5994,25 @@
       </c>
       <c r="K105" s="4"/>
     </row>
-    <row r="106" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4" t="n">
+    <row r="106" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C106" s="8" t="n">
+      <c r="C106" s="8">
         <v>-94</v>
       </c>
-      <c r="D106" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E106" s="4" t="n">
-        <f aca="false">273+D106</f>
-        <v>248</v>
-      </c>
-      <c r="F106" s="4" t="n">
-        <f aca="false">50+C106/2</f>
+      <c r="D106" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E106" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F106" s="4">
+        <f t="shared" si="7"/>
         <v>3</v>
       </c>
       <c r="G106" s="5" t="s">
@@ -5724,25 +6029,25 @@
       </c>
       <c r="K106" s="4"/>
     </row>
-    <row r="107" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A107" s="4" t="n">
+    <row r="107" spans="1:11" ht="23" customHeight="1">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C107" s="4" t="n">
+      <c r="C107" s="4">
         <v>97</v>
       </c>
-      <c r="D107" s="4" t="n">
+      <c r="D107" s="4">
         <v>25</v>
       </c>
-      <c r="E107" s="4" t="n">
-        <f aca="false">273+D107</f>
+      <c r="E107" s="4">
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="F107" s="4" t="n">
-        <f aca="false">50+C107/2</f>
+      <c r="F107" s="4">
+        <f t="shared" si="7"/>
         <v>98.5</v>
       </c>
       <c r="G107" s="4" t="s">
@@ -5759,25 +6064,25 @@
         <v>187</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A108" s="4" t="n">
+    <row r="108" spans="1:11" ht="23" customHeight="1">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C108" s="4" t="n">
+      <c r="C108" s="4">
         <v>69</v>
       </c>
-      <c r="D108" s="4" t="n">
+      <c r="D108" s="4">
         <v>25</v>
       </c>
-      <c r="E108" s="4" t="n">
-        <f aca="false">273+D108</f>
+      <c r="E108" s="4">
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="F108" s="4" t="n">
-        <f aca="false">50+C108/2</f>
+      <c r="F108" s="4">
+        <f t="shared" si="7"/>
         <v>84.5</v>
       </c>
       <c r="G108" s="4"/>
@@ -5792,25 +6097,25 @@
         <v>187</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A109" s="4" t="n">
+    <row r="109" spans="1:11" ht="23" customHeight="1">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C109" s="4" t="n">
+      <c r="C109" s="4">
         <v>64</v>
       </c>
-      <c r="D109" s="4" t="n">
+      <c r="D109" s="4">
         <v>25</v>
       </c>
-      <c r="E109" s="4" t="n">
-        <f aca="false">273+D109</f>
+      <c r="E109" s="4">
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="F109" s="4" t="n">
-        <f aca="false">50+C109/2</f>
+      <c r="F109" s="4">
+        <f t="shared" si="7"/>
         <v>82</v>
       </c>
       <c r="G109" s="4"/>
@@ -5825,25 +6130,25 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A110" s="4" t="n">
+    <row r="110" spans="1:11" ht="23" customHeight="1">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C110" s="4" t="n">
+      <c r="C110" s="4">
         <v>96</v>
       </c>
-      <c r="D110" s="4" t="n">
+      <c r="D110" s="4">
         <v>25</v>
       </c>
-      <c r="E110" s="4" t="n">
-        <f aca="false">273+D110</f>
+      <c r="E110" s="4">
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="F110" s="4" t="n">
-        <f aca="false">50+C110/2</f>
+      <c r="F110" s="4">
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="G110" s="4"/>
@@ -5858,25 +6163,25 @@
         <v>191</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="23" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A111" s="4" t="n">
+    <row r="111" spans="1:11" ht="23" customHeight="1">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C111" s="4" t="n">
+      <c r="C111" s="4">
         <v>66</v>
       </c>
-      <c r="D111" s="4" t="n">
+      <c r="D111" s="4">
         <v>25</v>
       </c>
-      <c r="E111" s="4" t="n">
-        <f aca="false">273+D111</f>
+      <c r="E111" s="4">
+        <f t="shared" si="6"/>
         <v>298</v>
       </c>
-      <c r="F111" s="4" t="n">
-        <f aca="false">50+C111/2</f>
+      <c r="F111" s="4">
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="G111" s="4"/>
@@ -5891,25 +6196,25 @@
         <v>187</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="4" t="n">
+    <row r="112" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C112" s="8" t="n">
+      <c r="C112" s="8">
         <v>92</v>
       </c>
-      <c r="D112" s="4" t="n">
+      <c r="D112" s="4">
         <v>-78</v>
       </c>
-      <c r="E112" s="4" t="n">
-        <f aca="false">273+D112</f>
+      <c r="E112" s="4">
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
-      <c r="F112" s="4" t="n">
-        <f aca="false">50+C112/2</f>
+      <c r="F112" s="4">
+        <f t="shared" si="7"/>
         <v>96</v>
       </c>
       <c r="G112" s="5" t="s">
@@ -5926,25 +6231,25 @@
       </c>
       <c r="K112" s="4"/>
     </row>
-    <row r="113" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A113" s="4" t="n">
+    <row r="113" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C113" s="8" t="n">
+      <c r="C113" s="8">
         <v>89</v>
       </c>
-      <c r="D113" s="4" t="n">
+      <c r="D113" s="4">
         <v>-78</v>
       </c>
-      <c r="E113" s="4" t="n">
-        <f aca="false">273+D113</f>
+      <c r="E113" s="4">
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
-      <c r="F113" s="4" t="n">
-        <f aca="false">50+C113/2</f>
+      <c r="F113" s="4">
+        <f t="shared" si="7"/>
         <v>94.5</v>
       </c>
       <c r="G113" s="5" t="s">
@@ -5961,25 +6266,25 @@
       </c>
       <c r="K113" s="4"/>
     </row>
-    <row r="114" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A114" s="4" t="n">
+    <row r="114" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C114" s="8" t="n">
+      <c r="C114" s="8">
         <v>-82</v>
       </c>
-      <c r="D114" s="4" t="n">
+      <c r="D114" s="4">
         <v>-78</v>
       </c>
-      <c r="E114" s="4" t="n">
-        <f aca="false">273+D114</f>
+      <c r="E114" s="4">
+        <f t="shared" si="6"/>
         <v>195</v>
       </c>
-      <c r="F114" s="4" t="n">
-        <f aca="false">50+C114/2</f>
+      <c r="F114" s="4">
+        <f t="shared" si="7"/>
         <v>9</v>
       </c>
       <c r="G114" s="5" t="s">
@@ -5996,25 +6301,25 @@
       </c>
       <c r="K114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A115" s="4" t="n">
+    <row r="115" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C115" s="8" t="n">
+      <c r="C115" s="8">
         <v>-99</v>
       </c>
-      <c r="D115" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E115" s="4" t="n">
-        <f aca="false">273+D115</f>
-        <v>248</v>
-      </c>
-      <c r="F115" s="4" t="n">
-        <f aca="false">50+C115/2</f>
+      <c r="D115" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E115" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F115" s="4">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="G115" s="5" t="s">
@@ -6033,25 +6338,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A116" s="4" t="n">
+    <row r="116" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C116" s="8" t="n">
+      <c r="C116" s="8">
         <v>27</v>
       </c>
-      <c r="D116" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E116" s="4" t="n">
-        <f aca="false">273+D116</f>
-        <v>248</v>
-      </c>
-      <c r="F116" s="4" t="n">
-        <f aca="false">50+C116/2</f>
+      <c r="D116" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E116" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F116" s="4">
+        <f t="shared" si="7"/>
         <v>63.5</v>
       </c>
       <c r="G116" s="5" t="s">
@@ -6068,25 +6373,25 @@
       </c>
       <c r="K116" s="4"/>
     </row>
-    <row r="117" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A117" s="4" t="n">
+    <row r="117" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C117" s="8" t="n">
+      <c r="C117" s="8">
         <v>-98</v>
       </c>
-      <c r="D117" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E117" s="4" t="n">
-        <f aca="false">273+D117</f>
-        <v>248</v>
-      </c>
-      <c r="F117" s="4" t="n">
-        <f aca="false">50+C117/2</f>
+      <c r="D117" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E117" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F117" s="4">
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G117" s="5" t="s">
@@ -6103,25 +6408,25 @@
       </c>
       <c r="K117" s="4"/>
     </row>
-    <row r="118" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A118" s="4" t="n">
+    <row r="118" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C118" s="8" t="n">
+      <c r="C118" s="8">
         <v>82</v>
       </c>
-      <c r="D118" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E118" s="4" t="n">
-        <f aca="false">273+D118</f>
-        <v>248</v>
-      </c>
-      <c r="F118" s="4" t="n">
-        <f aca="false">50+C118/2</f>
+      <c r="D118" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E118" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F118" s="4">
+        <f t="shared" si="7"/>
         <v>91</v>
       </c>
       <c r="G118" s="4"/>
@@ -6136,25 +6441,25 @@
       </c>
       <c r="K118" s="4"/>
     </row>
-    <row r="119" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A119" s="4" t="n">
+    <row r="119" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="C119" s="8" t="n">
+      <c r="C119" s="8">
         <v>-91</v>
       </c>
-      <c r="D119" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E119" s="4" t="n">
-        <f aca="false">273+D119</f>
-        <v>248</v>
-      </c>
-      <c r="F119" s="4" t="n">
-        <f aca="false">50+C119/2</f>
+      <c r="D119" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E119" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F119" s="4">
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="G119" s="4"/>
@@ -6171,25 +6476,25 @@
         <v>211</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A120" s="4" t="n">
+    <row r="120" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="C120" s="8" t="n">
+      <c r="C120" s="8">
         <v>18</v>
       </c>
-      <c r="D120" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E120" s="4" t="n">
-        <f aca="false">273+D120</f>
-        <v>248</v>
-      </c>
-      <c r="F120" s="4" t="n">
-        <f aca="false">50+C120/2</f>
+      <c r="D120" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E120" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F120" s="4">
+        <f t="shared" si="7"/>
         <v>59</v>
       </c>
       <c r="G120" s="4"/>
@@ -6204,25 +6509,25 @@
       </c>
       <c r="K120" s="4"/>
     </row>
-    <row r="121" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A121" s="4" t="n">
+    <row r="121" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="C121" s="8" t="n">
+      <c r="C121" s="8">
         <v>15</v>
       </c>
-      <c r="D121" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E121" s="4" t="n">
-        <f aca="false">273+D121</f>
-        <v>248</v>
-      </c>
-      <c r="F121" s="4" t="n">
-        <f aca="false">50+C121/2</f>
+      <c r="D121" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E121" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F121" s="4">
+        <f t="shared" si="7"/>
         <v>57.5</v>
       </c>
       <c r="G121" s="4"/>
@@ -6237,25 +6542,25 @@
       </c>
       <c r="K121" s="4"/>
     </row>
-    <row r="122" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A122" s="4" t="n">
+    <row r="122" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C122" s="8" t="n">
+      <c r="C122" s="8">
         <v>-91</v>
       </c>
-      <c r="D122" s="4" t="n">
+      <c r="D122" s="4">
         <v>20</v>
       </c>
-      <c r="E122" s="4" t="n">
-        <f aca="false">273+D122</f>
+      <c r="E122" s="4">
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
-      <c r="F122" s="4" t="n">
-        <f aca="false">50+C122/2</f>
+      <c r="F122" s="4">
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="G122" s="4"/>
@@ -6272,25 +6577,25 @@
         <v>211</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="4" t="n">
+    <row r="123" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C123" s="8" t="n">
+      <c r="C123" s="8">
         <v>95</v>
       </c>
-      <c r="D123" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E123" s="4" t="n">
-        <f aca="false">273+D123</f>
-        <v>248</v>
-      </c>
-      <c r="F123" s="4" t="n">
-        <f aca="false">50+C123/2</f>
+      <c r="D123" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E123" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F123" s="4">
+        <f t="shared" si="7"/>
         <v>97.5</v>
       </c>
       <c r="G123" s="4"/>
@@ -6305,25 +6610,25 @@
       </c>
       <c r="K123" s="4"/>
     </row>
-    <row r="124" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A124" s="4" t="n">
+    <row r="124" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C124" s="8" t="n">
+      <c r="C124" s="8">
         <v>85</v>
       </c>
-      <c r="D124" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E124" s="4" t="n">
-        <f aca="false">273+D124</f>
-        <v>248</v>
-      </c>
-      <c r="F124" s="4" t="n">
-        <f aca="false">50+C124/2</f>
+      <c r="D124" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E124" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F124" s="4">
+        <f t="shared" si="7"/>
         <v>92.5</v>
       </c>
       <c r="G124" s="4"/>
@@ -6338,25 +6643,25 @@
       </c>
       <c r="K124" s="4"/>
     </row>
-    <row r="125" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="4" t="n">
+    <row r="125" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="C125" s="8" t="n">
+      <c r="C125" s="8">
         <v>-90</v>
       </c>
-      <c r="D125" s="4" t="n">
+      <c r="D125" s="4">
         <v>20</v>
       </c>
-      <c r="E125" s="4" t="n">
-        <f aca="false">273+D125</f>
+      <c r="E125" s="4">
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
-      <c r="F125" s="4" t="n">
-        <f aca="false">50+C125/2</f>
+      <c r="F125" s="4">
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="G125" s="4"/>
@@ -6373,25 +6678,25 @@
         <v>211</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="4" t="n">
+    <row r="126" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="C126" s="8" t="n">
+      <c r="C126" s="8">
         <v>-61</v>
       </c>
-      <c r="D126" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E126" s="4" t="n">
-        <f aca="false">273+D126</f>
-        <v>248</v>
-      </c>
-      <c r="F126" s="4" t="n">
-        <f aca="false">50+C126/2</f>
+      <c r="D126" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E126" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F126" s="4">
+        <f t="shared" si="7"/>
         <v>19.5</v>
       </c>
       <c r="G126" s="4"/>
@@ -6406,25 +6711,25 @@
       </c>
       <c r="K126" s="4"/>
     </row>
-    <row r="127" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A127" s="4" t="n">
+    <row r="127" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="C127" s="8" t="n">
+      <c r="C127" s="8">
         <v>5</v>
       </c>
-      <c r="D127" s="4" t="n">
-        <v>-25</v>
-      </c>
-      <c r="E127" s="4" t="n">
-        <f aca="false">273+D127</f>
-        <v>248</v>
-      </c>
-      <c r="F127" s="4" t="n">
-        <f aca="false">50+C127/2</f>
+      <c r="D127" s="4">
+        <v>-25</v>
+      </c>
+      <c r="E127" s="4">
+        <f t="shared" si="6"/>
+        <v>248</v>
+      </c>
+      <c r="F127" s="4">
+        <f t="shared" si="7"/>
         <v>52.5</v>
       </c>
       <c r="G127" s="4"/>
@@ -6439,25 +6744,25 @@
       </c>
       <c r="K127" s="4"/>
     </row>
-    <row r="128" customFormat="false" ht="18.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A128" s="4" t="n">
+    <row r="128" spans="1:11" ht="18.25" customHeight="1">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C128" s="8" t="n">
+      <c r="C128" s="8">
         <v>-96</v>
       </c>
-      <c r="D128" s="4" t="n">
+      <c r="D128" s="4">
         <v>20</v>
       </c>
-      <c r="E128" s="4" t="n">
-        <f aca="false">273+D128</f>
+      <c r="E128" s="4">
+        <f t="shared" si="6"/>
         <v>293</v>
       </c>
-      <c r="F128" s="4" t="n">
-        <f aca="false">50+C128/2</f>
+      <c r="F128" s="4">
+        <f t="shared" si="7"/>
         <v>2</v>
       </c>
       <c r="G128" s="4"/>
@@ -6473,140 +6778,139 @@
       <c r="K128" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="15"/>
   <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I3" r:id="rId2" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I4" r:id="rId3" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I5" r:id="rId4" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I6" r:id="rId5" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I7" r:id="rId6" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I8" r:id="rId7" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I9" r:id="rId8" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I10" r:id="rId9" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I11" r:id="rId10" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I12" r:id="rId11" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I13" r:id="rId12" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I14" r:id="rId13" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I15" r:id="rId14" display="https://doi.org/10.1021/ja00213a030 "/>
-    <hyperlink ref="I16" r:id="rId15" display="https://doi.org/10.1021/jo00248a005 "/>
-    <hyperlink ref="I17" r:id="rId16" display="https://doi.org/10.1021/jo00248a005 "/>
-    <hyperlink ref="I18" r:id="rId17" display="https://doi.org/10.1021/jo00248a005 "/>
-    <hyperlink ref="I19" r:id="rId18" display="https://doi.org/10.1021/jo00248a005 "/>
-    <hyperlink ref="I20" r:id="rId19" display="https://doi.org/10.1021/jo00248a005 "/>
-    <hyperlink ref="I21" r:id="rId20" display="https://doi.org/10.1021/jo00248a005 "/>
-    <hyperlink ref="I22" r:id="rId21" display="https://doi.org/10.1021/jo00248a005 "/>
-    <hyperlink ref="I23" r:id="rId22" display="https://doi.org/10.1021/jo00280a013 "/>
-    <hyperlink ref="I24" r:id="rId23" display="https://doi.org/10.1021/jo00280a013 "/>
-    <hyperlink ref="I25" r:id="rId24" display="https://doi.org/10.1021/jo00280a013 "/>
-    <hyperlink ref="I26" r:id="rId25" display="https://doi.org/10.1021/jo00280a013 "/>
-    <hyperlink ref="I27" r:id="rId26" display="https://doi.org/10.1021/ja00165a036 "/>
-    <hyperlink ref="I28" r:id="rId27" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I29" r:id="rId28" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I30" r:id="rId29" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I31" r:id="rId30" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I32" r:id="rId31" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I33" r:id="rId32" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I34" r:id="rId33" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I35" r:id="rId34" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I36" r:id="rId35" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I37" r:id="rId36" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I38" r:id="rId37" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I39" r:id="rId38" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I40" r:id="rId39" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I41" r:id="rId40" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I42" r:id="rId41" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I43" r:id="rId42" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I44" r:id="rId43" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I45" r:id="rId44" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I46" r:id="rId45" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I47" r:id="rId46" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I48" r:id="rId47" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I49" r:id="rId48" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I50" r:id="rId49" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I51" r:id="rId50" display="https://doi.org/10.1021/ar00013a003 "/>
-    <hyperlink ref="I52" r:id="rId51" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I53" r:id="rId52" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I54" r:id="rId53" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I55" r:id="rId54" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I56" r:id="rId55" display="https://pubs.acs.org/doi/epdf/10.1021/jo00034a034"/>
-    <hyperlink ref="I57" r:id="rId56" display="https://doi.org/10.1016/S0957-4166(00)82208-9 "/>
-    <hyperlink ref="I58" r:id="rId57" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I59" r:id="rId58" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I60" r:id="rId59" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I61" r:id="rId60" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I62" r:id="rId61" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I63" r:id="rId62" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I64" r:id="rId63" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I65" r:id="rId64" display="https://doi.org/10.1016/S0040-4020(01)80530-5 "/>
-    <hyperlink ref="I66" r:id="rId65" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I67" r:id="rId66" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I68" r:id="rId67" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I69" r:id="rId68" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I70" r:id="rId69" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I71" r:id="rId70" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I72" r:id="rId71" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I73" r:id="rId72" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I74" r:id="rId73" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I75" r:id="rId74" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I76" r:id="rId75" display="https://doi.org/10.1016/0957-4166(94)80056-1 "/>
-    <hyperlink ref="I77" r:id="rId76" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I78" r:id="rId77" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I79" r:id="rId78" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I80" r:id="rId79" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I81" r:id="rId80" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I82" r:id="rId81" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I83" r:id="rId82" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I84" r:id="rId83" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I85" r:id="rId84" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I86" r:id="rId85" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I87" r:id="rId86" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I88" r:id="rId87" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I89" r:id="rId88" display="https://doi.org/10.1016/S0040-4039(00)76780-3 "/>
-    <hyperlink ref="I90" r:id="rId89" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I91" r:id="rId90" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I92" r:id="rId91" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I93" r:id="rId92" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I94" r:id="rId93" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I95" r:id="rId94" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I96" r:id="rId95" display="https://doi.org/10.1016/0040-4039(95)00609-G "/>
-    <hyperlink ref="I97" r:id="rId96" display="https://doi.org/10.1021/jo00106a012 "/>
-    <hyperlink ref="I98" r:id="rId97" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I99" r:id="rId98" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I100" r:id="rId99" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I101" r:id="rId100" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I102" r:id="rId101" display="https://doi.org/10.1016/0040-4039(96)00260-2 "/>
-    <hyperlink ref="I103" r:id="rId102" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I104" r:id="rId103" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I105" r:id="rId104" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I106" r:id="rId105" display="https://doi.org/10.1016/S0040-4039(97)00440-1 "/>
-    <hyperlink ref="I107" r:id="rId106" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I108" r:id="rId107" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I109" r:id="rId108" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I110" r:id="rId109" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I111" r:id="rId110" display="https://doi.org/10.1016/S0040-4039(96)02489-6 "/>
-    <hyperlink ref="I112" r:id="rId111" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I113" r:id="rId112" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I114" r:id="rId113" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I115" r:id="rId114" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I116" r:id="rId115" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I117" r:id="rId116" display="https://doi.org/10.1021/jo025594y "/>
-    <hyperlink ref="I118" r:id="rId117" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I119" r:id="rId118" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I120" r:id="rId119" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I121" r:id="rId120" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I122" r:id="rId121" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I123" r:id="rId122" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I124" r:id="rId123" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I125" r:id="rId124" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I126" r:id="rId125" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I127" r:id="rId126" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
-    <hyperlink ref="I128" r:id="rId127" display="https://doi.org/10.1016/j.jfluchem.2007.04.015 "/>
+    <hyperlink ref="I2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="I32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="I42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="I48" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I49" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="I50" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I51" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="I52" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I53" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="I54" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="I56" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I57" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="I58" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="I59" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="I60" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="I61" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="I62" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="I63" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="I64" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="I65" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="I66" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="I67" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="I68" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="I69" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="I70" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="I71" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="I72" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="I73" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="I74" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="I75" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="I76" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="I77" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="I78" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="I79" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="I80" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="I81" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="I82" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="I83" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="I84" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="I85" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="I86" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="I87" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="I88" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="I89" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="I90" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="I91" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="I92" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="I93" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="I94" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="I95" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="I96" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="I97" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="I98" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="I99" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="I100" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="I101" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="I102" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="I103" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="I104" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="I105" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="I106" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="I107" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="I108" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="I109" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="I110" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="I111" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="I112" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="I113" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="I114" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="I115" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="I116" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="I117" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="I118" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="I119" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="I120" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="I121" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="I122" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="I123" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="I124" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="I125" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="I126" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="I127" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="I128" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.511805555555555" footer="0.25"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="1" right="1" top="1" bottom="1" header="0.51180555555555496" footer="0.25"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;12&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
